--- a/DividendLiberty/Traditional IRA.xlsx
+++ b/DividendLiberty/Traditional IRA.xlsx
@@ -48,9 +48,6 @@
     <t>Consumer Staples</t>
   </si>
   <si>
-    <t>CLX</t>
-  </si>
-  <si>
     <t>EMR</t>
   </si>
   <si>
@@ -87,9 +84,6 @@
     <t>Date</t>
   </si>
   <si>
-    <t>Clorox</t>
-  </si>
-  <si>
     <t>Emerson</t>
   </si>
   <si>
@@ -177,12 +171,6 @@
     <t>Prev All Time Dividends</t>
   </si>
   <si>
-    <t>DIS</t>
-  </si>
-  <si>
-    <t>Disney Walt Co</t>
-  </si>
-  <si>
     <t>Consumer Discretionary</t>
   </si>
   <si>
@@ -220,6 +208,18 @@
   </si>
   <si>
     <t>Starbucks Corp</t>
+  </si>
+  <si>
+    <t>CVS</t>
+  </si>
+  <si>
+    <t>CVS Health Corp</t>
+  </si>
+  <si>
+    <t>MO</t>
+  </si>
+  <si>
+    <t>Altria Group, Inc</t>
   </si>
 </sst>
 </file>
@@ -227,8 +227,8 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <numFmts count="2">
-    <numFmt numFmtId="165" formatCode="0.0000"/>
-    <numFmt numFmtId="166" formatCode="0.000"/>
+    <numFmt numFmtId="164" formatCode="0.0000"/>
+    <numFmt numFmtId="165" formatCode="0.000"/>
   </numFmts>
   <fonts count="6" x14ac:knownFonts="1">
     <font>
@@ -386,9 +386,9 @@
     <xf numFmtId="2" fontId="2" fillId="9" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="2" fontId="2" fillId="8" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="2" fontId="0" fillId="5" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFill="1"/>
-    <xf numFmtId="165" fontId="2" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="165" fontId="2" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="164" fontId="2" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="164" fontId="2" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="5" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="2" fontId="0" fillId="10" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
   </cellXfs>
@@ -673,8 +673,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AF83"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B11" sqref="B11"/>
+    <sheetView topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="F44" sqref="F44"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -682,7 +682,7 @@
     <col min="1" max="1" width="10.7109375" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="7.5703125" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="5.140625" bestFit="1" customWidth="1"/>
-    <col min="4" max="5" width="9.7109375" bestFit="1" customWidth="1"/>
+    <col min="4" max="5" width="10.7109375" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="7.5703125" bestFit="1" customWidth="1"/>
     <col min="7" max="8" width="9.7109375" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="7.5703125" bestFit="1" customWidth="1"/>
@@ -711,78 +711,78 @@
   <sheetData>
     <row r="1" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A1" s="3" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B1" s="23" t="s">
-        <v>63</v>
+        <v>59</v>
       </c>
       <c r="C1" s="2"/>
       <c r="D1" s="3" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="E1" s="23" t="s">
-        <v>7</v>
+        <v>61</v>
       </c>
       <c r="F1" s="2"/>
       <c r="G1" s="3" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="H1" s="23" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="I1" s="2"/>
       <c r="J1" s="3" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="K1" s="23" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="L1" s="2"/>
       <c r="M1" s="3" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="N1" s="23" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="O1" s="2"/>
       <c r="P1" s="3" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="Q1" s="23" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="R1" s="2"/>
       <c r="S1" s="3" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="T1" s="23" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="U1" s="2"/>
       <c r="V1" s="3" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="W1" s="23" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="X1" s="2"/>
       <c r="Y1" s="3" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="Z1" s="23" t="s">
+        <v>15</v>
+      </c>
+      <c r="AB1" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="AC1" s="23" t="s">
         <v>16</v>
       </c>
-      <c r="AB1" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="AC1" s="23" t="s">
-        <v>17</v>
-      </c>
       <c r="AE1" s="3" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="AF1" s="23" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
     </row>
     <row r="2" spans="1:32" x14ac:dyDescent="0.25">
@@ -793,10 +793,10 @@
         <v>1998.5</v>
       </c>
       <c r="D2" s="4">
-        <v>42550</v>
+        <v>43096</v>
       </c>
       <c r="E2" s="19">
-        <v>1089.68</v>
+        <v>2041.2</v>
       </c>
       <c r="G2" s="4">
         <v>42550</v>
@@ -1300,7 +1300,7 @@
       </c>
       <c r="E40" s="19">
         <f>SUM(E2:E39)</f>
-        <v>1089.68</v>
+        <v>2041.2</v>
       </c>
       <c r="H40" s="19">
         <f>SUM(H2:H39)</f>
@@ -1341,40 +1341,40 @@
     </row>
     <row r="42" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A42" s="3" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B42" s="23" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="E42" s="3" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="F42" s="23" t="s">
+        <v>63</v>
+      </c>
+      <c r="H42" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="I42" s="23" t="s">
+        <v>49</v>
+      </c>
+      <c r="K42" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="L42" s="23" t="s">
         <v>50</v>
       </c>
-      <c r="H42" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="I42" s="23" t="s">
-        <v>53</v>
-      </c>
-      <c r="K42" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="L42" s="23" t="s">
-        <v>54</v>
-      </c>
       <c r="N42" s="3" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="O42" s="23" t="s">
-        <v>55</v>
+        <v>51</v>
       </c>
       <c r="Q42" s="3" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="R42" s="23" t="s">
-        <v>60</v>
+        <v>56</v>
       </c>
     </row>
     <row r="43" spans="1:32" x14ac:dyDescent="0.25">
@@ -1385,10 +1385,10 @@
         <v>1042.68</v>
       </c>
       <c r="E43" s="4">
-        <v>42912</v>
+        <v>43097</v>
       </c>
       <c r="F43" s="19">
-        <v>946.8</v>
+        <v>2010.54</v>
       </c>
       <c r="H43" s="4">
         <v>42912</v>
@@ -1430,7 +1430,7 @@
       </c>
       <c r="F83" s="19">
         <f>SUM(F43:F82)</f>
-        <v>946.8</v>
+        <v>2010.54</v>
       </c>
       <c r="I83" s="19">
         <f>SUM(I43:I82)</f>
@@ -1460,7 +1460,7 @@
   <dimension ref="A1:V19"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="R22" sqref="R22"/>
+      <selection activeCell="E4" sqref="E4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1506,52 +1506,52 @@
         <v>4</v>
       </c>
       <c r="F1" s="11" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="G1" s="12" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="H1" s="12" t="s">
+        <v>33</v>
+      </c>
+      <c r="I1" s="12" t="s">
+        <v>34</v>
+      </c>
+      <c r="J1" s="12" t="s">
         <v>35</v>
       </c>
-      <c r="I1" s="12" t="s">
+      <c r="K1" s="12" t="s">
         <v>36</v>
       </c>
-      <c r="J1" s="12" t="s">
+      <c r="L1" s="12" t="s">
         <v>37</v>
       </c>
-      <c r="K1" s="12" t="s">
+      <c r="M1" s="12" t="s">
         <v>38</v>
       </c>
-      <c r="L1" s="12" t="s">
+      <c r="N1" s="12" t="s">
         <v>39</v>
       </c>
-      <c r="M1" s="12" t="s">
+      <c r="O1" s="12" t="s">
         <v>40</v>
       </c>
-      <c r="N1" s="12" t="s">
+      <c r="P1" s="12" t="s">
         <v>41</v>
       </c>
-      <c r="O1" s="12" t="s">
+      <c r="Q1" s="12" t="s">
         <v>42</v>
       </c>
-      <c r="P1" s="12" t="s">
+      <c r="R1" s="12" t="s">
         <v>43</v>
       </c>
-      <c r="Q1" s="12" t="s">
+      <c r="S1" s="12" t="s">
         <v>44</v>
       </c>
-      <c r="R1" s="12" t="s">
+      <c r="T1" s="11" t="s">
         <v>45</v>
       </c>
-      <c r="S1" s="12" t="s">
+      <c r="U1" s="11" t="s">
         <v>46</v>
-      </c>
-      <c r="T1" s="11" t="s">
-        <v>47</v>
-      </c>
-      <c r="U1" s="11" t="s">
-        <v>48</v>
       </c>
       <c r="V1" s="10" t="s">
         <v>5</v>
@@ -1559,13 +1559,13 @@
     </row>
     <row r="2" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A2" s="13" t="s">
-        <v>63</v>
+        <v>59</v>
       </c>
       <c r="B2" s="8" t="s">
-        <v>64</v>
+        <v>60</v>
       </c>
       <c r="C2" s="8" t="s">
-        <v>52</v>
+        <v>48</v>
       </c>
       <c r="D2" s="8">
         <v>35</v>
@@ -1632,34 +1632,33 @@
     </row>
     <row r="3" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A3" s="14" t="s">
-        <v>7</v>
+        <v>61</v>
       </c>
       <c r="B3" s="6" t="s">
-        <v>20</v>
+        <v>62</v>
       </c>
       <c r="C3" s="6" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="D3" s="6">
-        <v>8.31</v>
-      </c>
-      <c r="E3" s="32" t="e">
+        <v>28</v>
+      </c>
+      <c r="E3" s="32">
         <f t="shared" si="0"/>
-        <v>#REF!</v>
+        <v>72.900000000000006</v>
       </c>
       <c r="F3" s="7">
         <f>'Initial Buys'!E40</f>
-        <v>1089.68</v>
-      </c>
-      <c r="G3" s="25" t="e">
-        <f>#REF!</f>
-        <v>#REF!</v>
+        <v>2041.2</v>
+      </c>
+      <c r="G3" s="25">
+        <v>0</v>
       </c>
       <c r="H3" s="22">
         <v>0</v>
       </c>
       <c r="I3" s="20">
-        <v>6.48</v>
+        <v>0</v>
       </c>
       <c r="J3" s="22">
         <v>0</v>
@@ -1668,7 +1667,7 @@
         <v>0</v>
       </c>
       <c r="L3" s="22">
-        <v>6.52</v>
+        <v>0</v>
       </c>
       <c r="M3" s="20">
         <v>0</v>
@@ -1677,7 +1676,7 @@
         <v>0</v>
       </c>
       <c r="O3" s="20">
-        <v>6.89</v>
+        <v>0</v>
       </c>
       <c r="P3" s="22">
         <v>0</v>
@@ -1686,44 +1685,44 @@
         <v>0</v>
       </c>
       <c r="R3" s="22">
-        <v>6.94</v>
+        <v>0</v>
       </c>
       <c r="S3" s="20">
         <v>0</v>
       </c>
       <c r="T3" s="18">
         <f t="shared" ref="T3:T15" si="2">SUM(H3:S3)</f>
-        <v>26.830000000000002</v>
-      </c>
-      <c r="U3" s="18" t="e">
+        <v>0</v>
+      </c>
+      <c r="U3" s="18">
         <f t="shared" ref="U3:U15" si="3">SUM(G3:S3)</f>
-        <v>#REF!</v>
-      </c>
-      <c r="V3" s="16" t="e">
+        <v>0</v>
+      </c>
+      <c r="V3" s="16">
         <f>SUM(F3, U3)</f>
-        <v>#REF!</v>
+        <v>2041.2</v>
       </c>
     </row>
     <row r="4" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A4" s="13" t="s">
-        <v>50</v>
+        <v>63</v>
       </c>
       <c r="B4" s="8" t="s">
-        <v>51</v>
+        <v>64</v>
       </c>
       <c r="C4" s="8" t="s">
-        <v>52</v>
+        <v>6</v>
       </c>
       <c r="D4" s="8">
-        <v>9.0660000000000007</v>
+        <v>28</v>
       </c>
       <c r="E4" s="31">
         <f t="shared" si="0"/>
-        <v>105.20847121111845</v>
+        <v>71.804999999999993</v>
       </c>
       <c r="F4" s="9">
         <f>'Initial Buys'!F83</f>
-        <v>946.8</v>
+        <v>2010.54</v>
       </c>
       <c r="G4" s="30">
         <v>0</v>
@@ -1747,7 +1746,7 @@
         <v>0</v>
       </c>
       <c r="N4" s="22">
-        <v>7.02</v>
+        <v>0</v>
       </c>
       <c r="O4" s="20">
         <v>0</v>
@@ -1766,41 +1765,40 @@
       </c>
       <c r="T4" s="17">
         <f t="shared" si="2"/>
-        <v>7.02</v>
+        <v>0</v>
       </c>
       <c r="U4" s="17">
         <f t="shared" si="3"/>
-        <v>7.02</v>
+        <v>0</v>
       </c>
       <c r="V4" s="15">
         <f>SUM(F4, U4)</f>
-        <v>953.81999999999994</v>
+        <v>2010.54</v>
       </c>
     </row>
     <row r="5" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A5" s="14" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B5" s="6" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="C5" s="6" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D5" s="6">
         <v>21.001999999999999</v>
       </c>
-      <c r="E5" s="32" t="e">
+      <c r="E5" s="32">
         <f t="shared" si="0"/>
-        <v>#REF!</v>
+        <v>47.604990000952291</v>
       </c>
       <c r="F5" s="7">
         <f>'Initial Buys'!H40</f>
         <v>999.8</v>
       </c>
-      <c r="G5" s="25" t="e">
-        <f>#REF!</f>
-        <v>#REF!</v>
+      <c r="G5" s="25">
+        <v>0</v>
       </c>
       <c r="H5" s="22">
         <v>0</v>
@@ -1809,7 +1807,7 @@
         <v>0</v>
       </c>
       <c r="J5" s="22">
-        <v>9.77</v>
+        <v>0</v>
       </c>
       <c r="K5" s="20">
         <v>0</v>
@@ -1818,7 +1816,7 @@
         <v>0</v>
       </c>
       <c r="M5" s="20">
-        <v>9.85</v>
+        <v>0</v>
       </c>
       <c r="N5" s="22">
         <v>0</v>
@@ -1827,7 +1825,7 @@
         <v>0</v>
       </c>
       <c r="P5" s="22">
-        <v>9.93</v>
+        <v>0</v>
       </c>
       <c r="Q5" s="20">
         <v>0</v>
@@ -1836,27 +1834,27 @@
         <v>0</v>
       </c>
       <c r="S5" s="20">
-        <v>10.11</v>
+        <v>0</v>
       </c>
       <c r="T5" s="18">
         <f t="shared" si="2"/>
-        <v>39.659999999999997</v>
-      </c>
-      <c r="U5" s="18" t="e">
+        <v>0</v>
+      </c>
+      <c r="U5" s="18">
         <f t="shared" si="3"/>
-        <v>#REF!</v>
-      </c>
-      <c r="V5" s="16" t="e">
+        <v>0</v>
+      </c>
+      <c r="V5" s="16">
         <f t="shared" si="1"/>
-        <v>#REF!</v>
+        <v>999.8</v>
       </c>
     </row>
     <row r="6" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A6" s="13" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B6" s="8" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="C6" s="8" t="s">
         <v>6</v>
@@ -1864,23 +1862,22 @@
       <c r="D6" s="8">
         <v>48.758000000000003</v>
       </c>
-      <c r="E6" s="31" t="e">
+      <c r="E6" s="31">
         <f t="shared" si="0"/>
-        <v>#REF!</v>
+        <v>33.344681898355141</v>
       </c>
       <c r="F6" s="9">
         <f>'Initial Buys'!K40</f>
         <v>1625.8200000000002</v>
       </c>
-      <c r="G6" s="30" t="e">
-        <f>#REF!</f>
-        <v>#REF!</v>
+      <c r="G6" s="30">
+        <v>0</v>
       </c>
       <c r="H6" s="22">
         <v>0</v>
       </c>
       <c r="I6" s="20">
-        <v>3.26</v>
+        <v>0</v>
       </c>
       <c r="J6" s="22">
         <v>0</v>
@@ -1889,7 +1886,7 @@
         <v>0</v>
       </c>
       <c r="L6" s="22">
-        <v>3.27</v>
+        <v>0</v>
       </c>
       <c r="M6" s="20">
         <v>0</v>
@@ -1898,7 +1895,7 @@
         <v>0</v>
       </c>
       <c r="O6" s="20">
-        <v>5.67</v>
+        <v>0</v>
       </c>
       <c r="P6" s="22">
         <v>0</v>
@@ -1907,40 +1904,40 @@
         <v>0</v>
       </c>
       <c r="R6" s="22">
-        <v>8.25</v>
+        <v>0</v>
       </c>
       <c r="S6" s="20">
         <v>0</v>
       </c>
       <c r="T6" s="17">
         <f t="shared" si="2"/>
-        <v>20.45</v>
-      </c>
-      <c r="U6" s="17" t="e">
+        <v>0</v>
+      </c>
+      <c r="U6" s="17">
         <f t="shared" si="3"/>
-        <v>#REF!</v>
-      </c>
-      <c r="V6" s="15" t="e">
+        <v>0</v>
+      </c>
+      <c r="V6" s="15">
         <f t="shared" si="1"/>
-        <v>#REF!</v>
+        <v>1625.8200000000002</v>
       </c>
     </row>
     <row r="7" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A7" s="14" t="s">
-        <v>60</v>
+        <v>56</v>
       </c>
       <c r="B7" s="6" t="s">
-        <v>62</v>
+        <v>58</v>
       </c>
       <c r="C7" s="6" t="s">
-        <v>61</v>
+        <v>57</v>
       </c>
       <c r="D7" s="6">
         <v>33.203000000000003</v>
       </c>
       <c r="E7" s="32">
         <f t="shared" si="0"/>
-        <v>36.289190735776884</v>
+        <v>36.018432069391316</v>
       </c>
       <c r="F7" s="7">
         <f>'Initial Buys'!R83</f>
@@ -1983,27 +1980,27 @@
         <v>0</v>
       </c>
       <c r="S7" s="20">
-        <v>8.99</v>
+        <v>0</v>
       </c>
       <c r="T7" s="18">
         <f t="shared" ref="T7" si="4">SUM(H7:S7)</f>
-        <v>8.99</v>
+        <v>0</v>
       </c>
       <c r="U7" s="18">
         <f t="shared" ref="U7" si="5">SUM(G7:S7)</f>
-        <v>8.99</v>
+        <v>0</v>
       </c>
       <c r="V7" s="16">
         <f t="shared" ref="V7" si="6">SUM(F7, U7)</f>
-        <v>1204.9100000000001</v>
+        <v>1195.92</v>
       </c>
     </row>
     <row r="8" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A8" s="13" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B8" s="8" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="C8" s="8" t="s">
         <v>6</v>
@@ -2011,17 +2008,16 @@
       <c r="D8" s="8">
         <v>9.3569999999999993</v>
       </c>
-      <c r="E8" s="31" t="e">
+      <c r="E8" s="31">
         <f t="shared" si="0"/>
-        <v>#REF!</v>
+        <v>114.27701186277653</v>
       </c>
       <c r="F8" s="9">
         <f>'Initial Buys'!N40</f>
         <v>1069.29</v>
       </c>
-      <c r="G8" s="30" t="e">
-        <f>#REF!</f>
-        <v>#REF!</v>
+      <c r="G8" s="30">
+        <v>0</v>
       </c>
       <c r="H8" s="22">
         <v>0</v>
@@ -2030,7 +2026,7 @@
         <v>0</v>
       </c>
       <c r="J8" s="22">
-        <v>7.3</v>
+        <v>0</v>
       </c>
       <c r="K8" s="20">
         <v>0</v>
@@ -2039,7 +2035,7 @@
         <v>0</v>
       </c>
       <c r="M8" s="20">
-        <v>7.71</v>
+        <v>0</v>
       </c>
       <c r="N8" s="22">
         <v>0</v>
@@ -2048,7 +2044,7 @@
         <v>0</v>
       </c>
       <c r="P8" s="22">
-        <v>7.76</v>
+        <v>0</v>
       </c>
       <c r="Q8" s="20">
         <v>0</v>
@@ -2057,27 +2053,27 @@
         <v>0</v>
       </c>
       <c r="S8" s="20">
-        <v>7.81</v>
+        <v>0</v>
       </c>
       <c r="T8" s="17">
         <f t="shared" si="2"/>
-        <v>30.58</v>
-      </c>
-      <c r="U8" s="17" t="e">
+        <v>0</v>
+      </c>
+      <c r="U8" s="17">
         <f t="shared" si="3"/>
-        <v>#REF!</v>
-      </c>
-      <c r="V8" s="15" t="e">
+        <v>0</v>
+      </c>
+      <c r="V8" s="15">
         <f t="shared" si="1"/>
-        <v>#REF!</v>
+        <v>1069.29</v>
       </c>
     </row>
     <row r="9" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A9" s="14" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B9" s="6" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="C9" s="6" t="s">
         <v>6</v>
@@ -2085,17 +2081,16 @@
       <c r="D9" s="6">
         <v>23.465</v>
       </c>
-      <c r="E9" s="32" t="e">
+      <c r="E9" s="32">
         <f t="shared" si="0"/>
-        <v>#REF!</v>
+        <v>80.672917110590248</v>
       </c>
       <c r="F9" s="7">
         <f>'Initial Buys'!Q40</f>
         <v>1892.99</v>
       </c>
-      <c r="G9" s="25" t="e">
-        <f>#REF!</f>
-        <v>#REF!</v>
+      <c r="G9" s="25">
+        <v>0</v>
       </c>
       <c r="H9" s="22">
         <v>0</v>
@@ -2104,7 +2099,7 @@
         <v>0</v>
       </c>
       <c r="J9" s="22">
-        <v>6.04</v>
+        <v>0</v>
       </c>
       <c r="K9" s="20">
         <v>0</v>
@@ -2113,7 +2108,7 @@
         <v>0</v>
       </c>
       <c r="M9" s="20">
-        <v>6.08</v>
+        <v>0</v>
       </c>
       <c r="N9" s="22">
         <v>0</v>
@@ -2122,7 +2117,7 @@
         <v>0</v>
       </c>
       <c r="P9" s="22">
-        <v>6.38</v>
+        <v>0</v>
       </c>
       <c r="Q9" s="20">
         <v>0</v>
@@ -2131,45 +2126,44 @@
         <v>0</v>
       </c>
       <c r="S9" s="20">
-        <v>14.55</v>
+        <v>0</v>
       </c>
       <c r="T9" s="18">
         <f t="shared" si="2"/>
-        <v>33.049999999999997</v>
-      </c>
-      <c r="U9" s="18" t="e">
+        <v>0</v>
+      </c>
+      <c r="U9" s="18">
         <f t="shared" si="3"/>
-        <v>#REF!</v>
-      </c>
-      <c r="V9" s="16" t="e">
+        <v>0</v>
+      </c>
+      <c r="V9" s="16">
         <f t="shared" si="1"/>
-        <v>#REF!</v>
+        <v>1892.99</v>
       </c>
     </row>
     <row r="10" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A10" s="13" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B10" s="8" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="C10" s="8" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="D10" s="8">
         <v>8.3320000000000007</v>
       </c>
-      <c r="E10" s="31" t="e">
+      <c r="E10" s="31">
         <f t="shared" si="0"/>
-        <v>#REF!</v>
+        <v>113.77820451272203</v>
       </c>
       <c r="F10" s="9">
         <f>'Initial Buys'!T40</f>
         <v>948</v>
       </c>
-      <c r="G10" s="30" t="e">
-        <f>#REF!</f>
-        <v>#REF!</v>
+      <c r="G10" s="30">
+        <v>0</v>
       </c>
       <c r="H10" s="22">
         <v>0</v>
@@ -2178,7 +2172,7 @@
         <v>0</v>
       </c>
       <c r="J10" s="22">
-        <v>7.64</v>
+        <v>0</v>
       </c>
       <c r="K10" s="20">
         <v>0</v>
@@ -2187,7 +2181,7 @@
         <v>0</v>
       </c>
       <c r="M10" s="20">
-        <v>7.69</v>
+        <v>0</v>
       </c>
       <c r="N10" s="22">
         <v>0</v>
@@ -2196,7 +2190,7 @@
         <v>0</v>
       </c>
       <c r="P10" s="22">
-        <v>7.74</v>
+        <v>0</v>
       </c>
       <c r="Q10" s="20">
         <v>0</v>
@@ -2205,27 +2199,27 @@
         <v>0</v>
       </c>
       <c r="S10" s="20">
-        <v>8.3699999999999992</v>
+        <v>0</v>
       </c>
       <c r="T10" s="17">
         <f t="shared" si="2"/>
-        <v>31.439999999999998</v>
-      </c>
-      <c r="U10" s="17" t="e">
+        <v>0</v>
+      </c>
+      <c r="U10" s="17">
         <f t="shared" si="3"/>
-        <v>#REF!</v>
-      </c>
-      <c r="V10" s="15" t="e">
+        <v>0</v>
+      </c>
+      <c r="V10" s="15">
         <f t="shared" si="1"/>
-        <v>#REF!</v>
+        <v>948</v>
       </c>
     </row>
     <row r="11" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A11" s="14" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B11" s="6" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="C11" s="6" t="s">
         <v>6</v>
@@ -2233,17 +2227,16 @@
       <c r="D11" s="6">
         <v>11.27</v>
       </c>
-      <c r="E11" s="32" t="e">
+      <c r="E11" s="32">
         <f t="shared" si="0"/>
-        <v>#REF!</v>
+        <v>94.746228926353155</v>
       </c>
       <c r="F11" s="7">
         <f>'Initial Buys'!W40</f>
         <v>1062.5999999999999</v>
       </c>
-      <c r="G11" s="25" t="e">
-        <f>#REF!</f>
-        <v>#REF!</v>
+      <c r="G11" s="25">
+        <v>0</v>
       </c>
       <c r="H11" s="22">
         <v>5.19</v>
@@ -2255,7 +2248,7 @@
         <v>0</v>
       </c>
       <c r="K11" s="20">
-        <v>5.22</v>
+        <v>0</v>
       </c>
       <c r="L11" s="22">
         <v>0</v>
@@ -2264,7 +2257,7 @@
         <v>0</v>
       </c>
       <c r="N11" s="22">
-        <v>5.25</v>
+        <v>0</v>
       </c>
       <c r="O11" s="20">
         <v>0</v>
@@ -2273,7 +2266,7 @@
         <v>0</v>
       </c>
       <c r="Q11" s="20">
-        <v>5.27</v>
+        <v>0</v>
       </c>
       <c r="R11" s="22">
         <v>0</v>
@@ -2283,33 +2276,33 @@
       </c>
       <c r="T11" s="18">
         <f t="shared" si="2"/>
-        <v>20.93</v>
-      </c>
-      <c r="U11" s="18" t="e">
+        <v>5.19</v>
+      </c>
+      <c r="U11" s="18">
         <f t="shared" si="3"/>
-        <v>#REF!</v>
-      </c>
-      <c r="V11" s="16" t="e">
+        <v>5.19</v>
+      </c>
+      <c r="V11" s="16">
         <f t="shared" si="1"/>
-        <v>#REF!</v>
+        <v>1067.79</v>
       </c>
     </row>
     <row r="12" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A12" s="13" t="s">
+        <v>50</v>
+      </c>
+      <c r="B12" s="8" t="s">
         <v>54</v>
       </c>
-      <c r="B12" s="8" t="s">
-        <v>58</v>
-      </c>
       <c r="C12" s="8" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D12" s="8">
         <v>4.0430000000000001</v>
       </c>
       <c r="E12" s="31">
         <f t="shared" si="0"/>
-        <v>213.04724214692058</v>
+        <v>210.71481573089289</v>
       </c>
       <c r="F12" s="9">
         <f>'Initial Buys'!L83</f>
@@ -2343,7 +2336,7 @@
         <v>0</v>
       </c>
       <c r="P12" s="22">
-        <v>4.7</v>
+        <v>0</v>
       </c>
       <c r="Q12" s="20">
         <v>0</v>
@@ -2352,27 +2345,27 @@
         <v>0</v>
       </c>
       <c r="S12" s="20">
-        <v>4.7300000000000004</v>
+        <v>0</v>
       </c>
       <c r="T12" s="35">
         <f t="shared" si="2"/>
-        <v>9.43</v>
+        <v>0</v>
       </c>
       <c r="U12" s="17">
         <f t="shared" si="3"/>
-        <v>9.43</v>
+        <v>0</v>
       </c>
       <c r="V12" s="15">
         <f t="shared" si="1"/>
-        <v>861.34999999999991</v>
+        <v>851.92</v>
       </c>
     </row>
     <row r="13" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A13" s="14" t="s">
-        <v>55</v>
+        <v>51</v>
       </c>
       <c r="B13" s="6" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
       <c r="C13" s="6" t="s">
         <v>6</v>
@@ -2382,7 +2375,7 @@
       </c>
       <c r="E13" s="32">
         <f t="shared" si="0"/>
-        <v>117.28055197061451</v>
+        <v>116.4813858830537</v>
       </c>
       <c r="F13" s="7">
         <f>'Initial Buys'!O83</f>
@@ -2416,7 +2409,7 @@
         <v>0</v>
       </c>
       <c r="P13" s="22">
-        <v>8.0500000000000007</v>
+        <v>0</v>
       </c>
       <c r="Q13" s="20">
         <v>0</v>
@@ -2429,23 +2422,23 @@
       </c>
       <c r="T13" s="18">
         <f t="shared" si="2"/>
-        <v>8.0500000000000007</v>
+        <v>0</v>
       </c>
       <c r="U13" s="18">
         <f t="shared" si="3"/>
-        <v>8.0500000000000007</v>
+        <v>0</v>
       </c>
       <c r="V13" s="16">
         <f t="shared" si="1"/>
-        <v>1181.367</v>
+        <v>1173.317</v>
       </c>
     </row>
     <row r="14" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A14" s="13" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B14" s="8" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="C14" s="8" t="s">
         <v>6</v>
@@ -2453,17 +2446,16 @@
       <c r="D14" s="8">
         <v>17.311</v>
       </c>
-      <c r="E14" s="31" t="e">
+      <c r="E14" s="31">
         <f t="shared" si="0"/>
-        <v>#REF!</v>
+        <v>118.11738201143781</v>
       </c>
       <c r="F14" s="9">
         <f>'Initial Buys'!Z40</f>
         <v>2044.73</v>
       </c>
-      <c r="G14" s="30" t="e">
-        <f>#REF!</f>
-        <v>#REF!</v>
+      <c r="G14" s="30">
+        <v>0</v>
       </c>
       <c r="H14" s="22">
         <v>0</v>
@@ -2472,7 +2464,7 @@
         <v>0</v>
       </c>
       <c r="J14" s="22">
-        <v>6.04</v>
+        <v>0</v>
       </c>
       <c r="K14" s="20">
         <v>0</v>
@@ -2481,7 +2473,7 @@
         <v>0</v>
       </c>
       <c r="M14" s="20">
-        <v>6.07</v>
+        <v>0</v>
       </c>
       <c r="N14" s="22">
         <v>0</v>
@@ -2490,7 +2482,7 @@
         <v>0</v>
       </c>
       <c r="P14" s="22">
-        <v>6.35</v>
+        <v>0</v>
       </c>
       <c r="Q14" s="20">
         <v>0</v>
@@ -2499,37 +2491,37 @@
         <v>0</v>
       </c>
       <c r="S14" s="20">
-        <v>13.41</v>
+        <v>0</v>
       </c>
       <c r="T14" s="17">
         <f t="shared" si="2"/>
-        <v>31.87</v>
-      </c>
-      <c r="U14" s="17" t="e">
+        <v>0</v>
+      </c>
+      <c r="U14" s="17">
         <f t="shared" si="3"/>
-        <v>#REF!</v>
-      </c>
-      <c r="V14" s="15" t="e">
+        <v>0</v>
+      </c>
+      <c r="V14" s="15">
         <f t="shared" si="1"/>
-        <v>#REF!</v>
+        <v>2044.73</v>
       </c>
     </row>
     <row r="15" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A15" s="14" t="s">
-        <v>53</v>
+        <v>49</v>
       </c>
       <c r="B15" s="6" t="s">
-        <v>56</v>
+        <v>52</v>
       </c>
       <c r="C15" s="34" t="s">
-        <v>59</v>
+        <v>55</v>
       </c>
       <c r="D15" s="6">
         <v>20.471</v>
       </c>
       <c r="E15" s="32">
         <f t="shared" si="0"/>
-        <v>49.960431830394214</v>
+        <v>48.820282350642373</v>
       </c>
       <c r="F15" s="7">
         <f>'Initial Buys'!I83</f>
@@ -2563,7 +2555,7 @@
         <v>0</v>
       </c>
       <c r="P15" s="22">
-        <v>11.6</v>
+        <v>0</v>
       </c>
       <c r="Q15" s="20">
         <v>0</v>
@@ -2572,37 +2564,37 @@
         <v>0</v>
       </c>
       <c r="S15" s="20">
-        <v>11.74</v>
+        <v>0</v>
       </c>
       <c r="T15" s="18">
         <f t="shared" si="2"/>
-        <v>23.34</v>
+        <v>0</v>
       </c>
       <c r="U15" s="18">
         <f t="shared" si="3"/>
-        <v>23.34</v>
+        <v>0</v>
       </c>
       <c r="V15" s="16">
         <f t="shared" si="1"/>
-        <v>1022.74</v>
+        <v>999.4</v>
       </c>
     </row>
     <row r="16" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A16" s="13" t="s">
+        <v>28</v>
+      </c>
+      <c r="B16" s="8" t="s">
         <v>30</v>
       </c>
-      <c r="B16" s="8" t="s">
-        <v>32</v>
-      </c>
       <c r="C16" s="8" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="D16" s="8">
         <v>35.188000000000002</v>
       </c>
       <c r="E16" s="31">
         <f>V16/D16</f>
-        <v>39.793679663521644</v>
+        <v>38.54097987950437</v>
       </c>
       <c r="F16" s="9">
         <f>'Initial Buys'!AF40</f>
@@ -2624,7 +2616,7 @@
         <v>0</v>
       </c>
       <c r="L16" s="22">
-        <v>10.29</v>
+        <v>0</v>
       </c>
       <c r="M16" s="20">
         <v>0</v>
@@ -2633,7 +2625,7 @@
         <v>0</v>
       </c>
       <c r="O16" s="20">
-        <v>16.79</v>
+        <v>0</v>
       </c>
       <c r="P16" s="22">
         <v>0</v>
@@ -2642,30 +2634,30 @@
         <v>0</v>
       </c>
       <c r="R16" s="22">
-        <v>17</v>
+        <v>0</v>
       </c>
       <c r="S16" s="20">
         <v>0</v>
       </c>
       <c r="T16" s="17">
         <f>SUM(H16:S16)</f>
-        <v>44.08</v>
+        <v>0</v>
       </c>
       <c r="U16" s="17">
         <f>SUM(G16:S16)</f>
-        <v>44.08</v>
+        <v>0</v>
       </c>
       <c r="V16" s="15">
         <f>SUM(F16, U16)</f>
-        <v>1400.2599999999998</v>
+        <v>1356.1799999999998</v>
       </c>
     </row>
     <row r="17" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A17" s="14" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B17" s="6" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="C17" s="6" t="s">
         <v>6</v>
@@ -2673,17 +2665,16 @@
       <c r="D17" s="6">
         <v>15.523999999999999</v>
       </c>
-      <c r="E17" s="32" t="e">
+      <c r="E17" s="32">
         <f>V17/D17</f>
-        <v>#REF!</v>
+        <v>69.969080133986097</v>
       </c>
       <c r="F17" s="7">
         <f>'Initial Buys'!AC40</f>
         <v>1078.6500000000001</v>
       </c>
-      <c r="G17" s="25" t="e">
-        <f>#REF!</f>
-        <v>#REF!</v>
+      <c r="G17" s="25">
+        <v>0</v>
       </c>
       <c r="H17" s="22">
         <v>7.55</v>
@@ -2695,13 +2686,13 @@
         <v>0</v>
       </c>
       <c r="K17" s="20">
-        <v>7.76</v>
+        <v>0</v>
       </c>
       <c r="L17" s="22">
         <v>0</v>
       </c>
       <c r="M17" s="20">
-        <v>7.82</v>
+        <v>0</v>
       </c>
       <c r="N17" s="22">
         <v>0</v>
@@ -2710,7 +2701,7 @@
         <v>0</v>
       </c>
       <c r="P17" s="22">
-        <v>7.87</v>
+        <v>0</v>
       </c>
       <c r="Q17" s="20">
         <v>0</v>
@@ -2723,33 +2714,33 @@
       </c>
       <c r="T17" s="18">
         <f>SUM(H17:S17)</f>
-        <v>31</v>
-      </c>
-      <c r="U17" s="18" t="e">
+        <v>7.55</v>
+      </c>
+      <c r="U17" s="18">
         <f>SUM(G17:S17)</f>
-        <v>#REF!</v>
-      </c>
-      <c r="V17" s="16" t="e">
+        <v>7.55</v>
+      </c>
+      <c r="V17" s="16">
         <f>SUM(F17, U17)</f>
-        <v>#REF!</v>
+        <v>1086.2</v>
       </c>
     </row>
     <row r="18" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A18" s="13" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="B18" s="8" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="C18" s="8" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="D18" s="8">
         <v>12.458</v>
       </c>
       <c r="E18" s="31">
         <f t="shared" ref="E18" si="7">V18/D18</f>
-        <v>86.684058436346135</v>
+        <v>83.695617274040785</v>
       </c>
       <c r="F18" s="9">
         <f>'Initial Buys'!B83</f>
@@ -2765,7 +2756,7 @@
         <v>0</v>
       </c>
       <c r="J18" s="22">
-        <v>9</v>
+        <v>0</v>
       </c>
       <c r="K18" s="20">
         <v>0</v>
@@ -2774,7 +2765,7 @@
         <v>0</v>
       </c>
       <c r="M18" s="20">
-        <v>9.32</v>
+        <v>0</v>
       </c>
       <c r="N18" s="22">
         <v>0</v>
@@ -2783,7 +2774,7 @@
         <v>0</v>
       </c>
       <c r="P18" s="22">
-        <v>9.41</v>
+        <v>0</v>
       </c>
       <c r="Q18" s="20">
         <v>0</v>
@@ -2792,19 +2783,19 @@
         <v>0</v>
       </c>
       <c r="S18" s="20">
-        <v>9.5</v>
+        <v>0</v>
       </c>
       <c r="T18" s="17">
         <f t="shared" ref="T18" si="8">SUM(H18:S18)</f>
-        <v>37.230000000000004</v>
+        <v>0</v>
       </c>
       <c r="U18" s="17">
         <f t="shared" ref="U18" si="9">SUM(G18:S18)</f>
-        <v>37.230000000000004</v>
+        <v>0</v>
       </c>
       <c r="V18" s="15">
         <f t="shared" ref="V18" si="10">SUM(F18, U18)</f>
-        <v>1079.9100000000001</v>
+        <v>1042.68</v>
       </c>
     </row>
     <row r="19" spans="1:22" x14ac:dyDescent="0.25">
@@ -2815,11 +2806,11 @@
       <c r="E19" s="26"/>
       <c r="F19" s="27">
         <f t="shared" ref="F19:V19" si="11">SUM(F2:F18)</f>
-        <v>21376.277000000006</v>
-      </c>
-      <c r="G19" s="28" t="e">
+        <v>23391.537000000004</v>
+      </c>
+      <c r="G19" s="28">
         <f t="shared" si="11"/>
-        <v>#REF!</v>
+        <v>0</v>
       </c>
       <c r="H19" s="29">
         <f t="shared" si="11"/>
@@ -2827,59 +2818,59 @@
       </c>
       <c r="I19" s="28">
         <f t="shared" si="11"/>
-        <v>9.74</v>
+        <v>0</v>
       </c>
       <c r="J19" s="29">
         <f t="shared" si="11"/>
-        <v>45.79</v>
+        <v>0</v>
       </c>
       <c r="K19" s="28">
         <f t="shared" si="11"/>
-        <v>12.98</v>
+        <v>0</v>
       </c>
       <c r="L19" s="29">
         <f t="shared" si="11"/>
-        <v>20.079999999999998</v>
+        <v>0</v>
       </c>
       <c r="M19" s="28">
         <f t="shared" si="11"/>
-        <v>54.540000000000006</v>
+        <v>0</v>
       </c>
       <c r="N19" s="29">
         <f t="shared" si="11"/>
-        <v>12.27</v>
+        <v>0</v>
       </c>
       <c r="O19" s="28">
         <f t="shared" si="11"/>
-        <v>29.349999999999998</v>
+        <v>0</v>
       </c>
       <c r="P19" s="29">
         <f t="shared" si="11"/>
-        <v>79.790000000000006</v>
+        <v>0</v>
       </c>
       <c r="Q19" s="28">
         <f t="shared" si="11"/>
-        <v>5.27</v>
+        <v>0</v>
       </c>
       <c r="R19" s="29">
         <f t="shared" si="11"/>
-        <v>32.19</v>
+        <v>0</v>
       </c>
       <c r="S19" s="28">
         <f t="shared" si="11"/>
-        <v>89.21</v>
+        <v>0</v>
       </c>
       <c r="T19" s="28">
         <f t="shared" si="11"/>
-        <v>403.95</v>
-      </c>
-      <c r="U19" s="28" t="e">
+        <v>12.74</v>
+      </c>
+      <c r="U19" s="28">
         <f t="shared" si="11"/>
-        <v>#REF!</v>
-      </c>
-      <c r="V19" s="21" t="e">
+        <v>12.74</v>
+      </c>
+      <c r="V19" s="21">
         <f t="shared" si="11"/>
-        <v>#REF!</v>
+        <v>23404.277000000002</v>
       </c>
     </row>
   </sheetData>

--- a/DividendLiberty/Traditional IRA.xlsx
+++ b/DividendLiberty/Traditional IRA.xlsx
@@ -13,7 +13,7 @@
   </bookViews>
   <sheets>
     <sheet name="Initial Buys" sheetId="3" r:id="rId1"/>
-    <sheet name="2017" sheetId="4" r:id="rId2"/>
+    <sheet name="2018" sheetId="4" r:id="rId2"/>
   </sheets>
   <calcPr calcId="152511"/>
   <extLst>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="107" uniqueCount="65">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="107" uniqueCount="64">
   <si>
     <t>Symbols</t>
   </si>
@@ -48,21 +48,12 @@
     <t>Consumer Staples</t>
   </si>
   <si>
-    <t>EMR</t>
-  </si>
-  <si>
     <t>Industrials</t>
   </si>
   <si>
-    <t>HRL</t>
-  </si>
-  <si>
     <t>JNJ</t>
   </si>
   <si>
-    <t>Health Care</t>
-  </si>
-  <si>
     <t>KHC</t>
   </si>
   <si>
@@ -84,12 +75,6 @@
     <t>Date</t>
   </si>
   <si>
-    <t>Emerson</t>
-  </si>
-  <si>
-    <t>Hormel</t>
-  </si>
-  <si>
     <t>Johnson &amp; Johnson</t>
   </si>
   <si>
@@ -195,15 +180,9 @@
     <t>Utilities</t>
   </si>
   <si>
-    <t>INTC</t>
-  </si>
-  <si>
     <t>Technology</t>
   </si>
   <si>
-    <t>Intel Corp</t>
-  </si>
-  <si>
     <t>SBUX</t>
   </si>
   <si>
@@ -220,6 +199,24 @@
   </si>
   <si>
     <t>Altria Group, Inc</t>
+  </si>
+  <si>
+    <t>KMI</t>
+  </si>
+  <si>
+    <t>GE</t>
+  </si>
+  <si>
+    <t>General Electric Co</t>
+  </si>
+  <si>
+    <t>Kinder Morgan Inc</t>
+  </si>
+  <si>
+    <t>AAPL</t>
+  </si>
+  <si>
+    <t>Apple Inc</t>
   </si>
 </sst>
 </file>
@@ -274,7 +271,7 @@
       <family val="2"/>
     </font>
   </fonts>
-  <fills count="11">
+  <fills count="10">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -329,12 +326,6 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="0"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
   </fills>
   <borders count="1">
     <border>
@@ -348,7 +339,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="36">
+  <cellXfs count="34">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="17" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -379,7 +370,6 @@
     <xf numFmtId="4" fontId="2" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="2" fontId="0" fillId="7" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1"/>
     <xf numFmtId="2" fontId="0" fillId="4" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="9" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="4" fontId="2" fillId="9" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
@@ -389,8 +379,7 @@
     <xf numFmtId="164" fontId="2" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="164" fontId="2" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="2" fontId="0" fillId="10" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -673,8 +662,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AF83"/>
   <sheetViews>
-    <sheetView topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="F44" sqref="F44"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="Q44" sqref="Q44"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -711,78 +700,78 @@
   <sheetData>
     <row r="1" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A1" s="3" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="B1" s="23" t="s">
-        <v>59</v>
+        <v>52</v>
       </c>
       <c r="C1" s="2"/>
       <c r="D1" s="3" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="E1" s="23" t="s">
-        <v>61</v>
+        <v>54</v>
       </c>
       <c r="F1" s="2"/>
       <c r="G1" s="3" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="H1" s="23" t="s">
-        <v>7</v>
+        <v>58</v>
       </c>
       <c r="I1" s="2"/>
       <c r="J1" s="3" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="K1" s="23" t="s">
-        <v>9</v>
+        <v>59</v>
       </c>
       <c r="L1" s="2"/>
       <c r="M1" s="3" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="N1" s="23" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="O1" s="2"/>
       <c r="P1" s="3" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="Q1" s="23" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="R1" s="2"/>
       <c r="S1" s="3" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="T1" s="23" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="U1" s="2"/>
       <c r="V1" s="3" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="W1" s="23" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="X1" s="2"/>
       <c r="Y1" s="3" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="Z1" s="23" t="s">
+        <v>12</v>
+      </c>
+      <c r="AB1" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="AB1" s="3" t="s">
-        <v>18</v>
-      </c>
       <c r="AC1" s="23" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="AE1" s="3" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="AF1" s="23" t="s">
-        <v>28</v>
+        <v>23</v>
       </c>
     </row>
     <row r="2" spans="1:32" x14ac:dyDescent="0.25">
@@ -799,58 +788,58 @@
         <v>2041.2</v>
       </c>
       <c r="G2" s="4">
-        <v>42550</v>
+        <v>43104</v>
       </c>
       <c r="H2" s="19">
-        <v>999.8</v>
+        <v>2011.35</v>
       </c>
       <c r="J2" s="4">
-        <v>42550</v>
+        <v>43104</v>
       </c>
       <c r="K2" s="19">
-        <v>672.41</v>
+        <v>2005.45</v>
       </c>
       <c r="M2" s="4">
         <v>42550</v>
       </c>
       <c r="N2" s="19">
-        <v>1069.29</v>
+        <v>0</v>
       </c>
       <c r="P2" s="4">
         <v>42625</v>
       </c>
       <c r="Q2" s="19">
-        <v>878.6</v>
+        <v>0</v>
       </c>
       <c r="S2" s="4">
         <v>42580</v>
       </c>
       <c r="T2" s="19">
-        <v>948</v>
+        <v>0</v>
       </c>
       <c r="V2" s="4">
         <v>42625</v>
       </c>
       <c r="W2" s="19">
-        <v>1062.5999999999999</v>
+        <v>0</v>
       </c>
       <c r="Y2" s="4">
         <v>42625</v>
       </c>
       <c r="Z2" s="19">
-        <v>1093.28</v>
+        <v>0</v>
       </c>
       <c r="AB2" s="4">
         <v>42550</v>
       </c>
       <c r="AC2" s="19">
-        <v>1078.6500000000001</v>
+        <v>0</v>
       </c>
       <c r="AE2" s="4">
         <v>42748</v>
       </c>
       <c r="AF2" s="19">
-        <v>852.56</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3" spans="1:32" x14ac:dyDescent="0.25">
@@ -858,54 +847,29 @@
       <c r="B3" s="5"/>
       <c r="E3" s="5"/>
       <c r="H3" s="5"/>
-      <c r="J3" s="4">
-        <v>42902</v>
-      </c>
-      <c r="K3" s="5">
-        <v>480.76</v>
-      </c>
+      <c r="J3" s="4"/>
+      <c r="K3" s="5"/>
       <c r="N3" s="5"/>
-      <c r="P3" s="4">
-        <v>43006</v>
-      </c>
-      <c r="Q3" s="5">
-        <v>1014.39</v>
-      </c>
+      <c r="P3" s="4"/>
+      <c r="Q3" s="5"/>
       <c r="T3" s="5"/>
       <c r="W3" s="5"/>
-      <c r="Y3" s="4">
-        <v>42985</v>
-      </c>
-      <c r="Z3" s="19">
-        <v>316.89</v>
-      </c>
-      <c r="AE3" s="4">
-        <v>42902</v>
-      </c>
-      <c r="AF3">
-        <v>503.62</v>
-      </c>
+      <c r="Y3" s="4"/>
+      <c r="Z3" s="19"/>
+      <c r="AE3" s="4"/>
     </row>
     <row r="4" spans="1:32" x14ac:dyDescent="0.25">
       <c r="B4" s="5"/>
       <c r="E4" s="5"/>
       <c r="H4" s="5"/>
-      <c r="J4" s="4">
-        <v>43025</v>
-      </c>
-      <c r="K4" s="5">
-        <v>472.65</v>
-      </c>
+      <c r="J4" s="4"/>
+      <c r="K4" s="5"/>
       <c r="N4" s="5"/>
       <c r="Q4" s="5"/>
       <c r="T4" s="5"/>
       <c r="W4" s="5"/>
-      <c r="Y4" s="4">
-        <v>42985</v>
-      </c>
-      <c r="Z4" s="5">
-        <v>634.55999999999995</v>
-      </c>
+      <c r="Y4" s="4"/>
+      <c r="Z4" s="5"/>
     </row>
     <row r="5" spans="1:32" x14ac:dyDescent="0.25">
       <c r="B5" s="5"/>
@@ -1304,77 +1268,77 @@
       </c>
       <c r="H40" s="19">
         <f>SUM(H2:H39)</f>
-        <v>999.8</v>
+        <v>2011.35</v>
       </c>
       <c r="K40" s="19">
         <f>SUM(K2:K39)</f>
-        <v>1625.8200000000002</v>
+        <v>2005.45</v>
       </c>
       <c r="N40" s="19">
         <f>SUM(N2:N39)</f>
-        <v>1069.29</v>
+        <v>0</v>
       </c>
       <c r="Q40" s="19">
         <f>SUM(Q2:Q39)</f>
-        <v>1892.99</v>
+        <v>0</v>
       </c>
       <c r="T40" s="19">
         <f>SUM(T2:T39)</f>
-        <v>948</v>
+        <v>0</v>
       </c>
       <c r="W40" s="19">
         <f>SUM(W2:W39)</f>
-        <v>1062.5999999999999</v>
+        <v>0</v>
       </c>
       <c r="Z40" s="19">
         <f>SUM(Z2:Z39)</f>
-        <v>2044.73</v>
+        <v>0</v>
       </c>
       <c r="AC40" s="19">
         <f>SUM(AC2:AC39)</f>
-        <v>1078.6500000000001</v>
+        <v>0</v>
       </c>
       <c r="AF40">
         <f>SUM(AF2:AF39)</f>
-        <v>1356.1799999999998</v>
+        <v>0</v>
       </c>
     </row>
     <row r="42" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A42" s="3" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="B42" s="23" t="s">
-        <v>32</v>
+        <v>27</v>
       </c>
       <c r="E42" s="3" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="F42" s="23" t="s">
-        <v>63</v>
+        <v>56</v>
       </c>
       <c r="H42" s="3" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="I42" s="23" t="s">
-        <v>49</v>
+        <v>44</v>
       </c>
       <c r="K42" s="3" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="L42" s="23" t="s">
-        <v>50</v>
+        <v>45</v>
       </c>
       <c r="N42" s="3" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="O42" s="23" t="s">
-        <v>51</v>
+        <v>46</v>
       </c>
       <c r="Q42" s="3" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="R42" s="23" t="s">
-        <v>56</v>
+        <v>62</v>
       </c>
     </row>
     <row r="43" spans="1:32" x14ac:dyDescent="0.25">
@@ -1382,7 +1346,7 @@
         <v>42748</v>
       </c>
       <c r="B43" s="19">
-        <v>1042.68</v>
+        <v>0</v>
       </c>
       <c r="E43" s="4">
         <v>43097</v>
@@ -1394,39 +1358,35 @@
         <v>42912</v>
       </c>
       <c r="I43" s="19">
-        <v>999.4</v>
+        <v>0</v>
       </c>
       <c r="K43" s="4">
         <v>42912</v>
       </c>
       <c r="L43" s="19">
-        <v>851.92</v>
+        <v>0</v>
       </c>
       <c r="N43" s="4">
         <v>42912</v>
       </c>
       <c r="O43" s="19">
-        <v>1055.7</v>
+        <v>0</v>
       </c>
       <c r="Q43" s="4">
-        <v>42964</v>
+        <v>43109</v>
       </c>
       <c r="R43" s="19">
-        <v>1195.92</v>
+        <v>2267.85</v>
       </c>
     </row>
     <row r="44" spans="1:32" x14ac:dyDescent="0.25">
-      <c r="N44" s="4">
-        <v>42912</v>
-      </c>
-      <c r="O44" s="33">
-        <v>117.617</v>
-      </c>
+      <c r="N44" s="4"/>
+      <c r="O44" s="32"/>
     </row>
     <row r="83" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B83" s="19">
         <f>SUM(B43:B82)</f>
-        <v>1042.68</v>
+        <v>0</v>
       </c>
       <c r="F83" s="19">
         <f>SUM(F43:F82)</f>
@@ -1434,19 +1394,19 @@
       </c>
       <c r="I83" s="19">
         <f>SUM(I43:I82)</f>
-        <v>999.4</v>
+        <v>0</v>
       </c>
       <c r="L83" s="19">
         <f>SUM(L43:L82)</f>
-        <v>851.92</v>
+        <v>0</v>
       </c>
       <c r="O83" s="19">
         <f>SUM(O43:O82)</f>
-        <v>1173.317</v>
+        <v>0</v>
       </c>
       <c r="R83" s="19">
         <f>SUM(R43:R82)</f>
-        <v>1195.92</v>
+        <v>2267.85</v>
       </c>
     </row>
   </sheetData>
@@ -1460,14 +1420,14 @@
   <dimension ref="A1:V19"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E4" sqref="E4"/>
+      <selection activeCell="P28" sqref="P28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="8.7109375" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="18.140625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="22.5703125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="23.7109375" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="7.28515625" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="10.5703125" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="10.42578125" bestFit="1" customWidth="1"/>
@@ -1506,740 +1466,740 @@
         <v>4</v>
       </c>
       <c r="F1" s="11" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="G1" s="12" t="s">
-        <v>47</v>
+        <v>42</v>
       </c>
       <c r="H1" s="12" t="s">
+        <v>28</v>
+      </c>
+      <c r="I1" s="12" t="s">
+        <v>29</v>
+      </c>
+      <c r="J1" s="12" t="s">
+        <v>30</v>
+      </c>
+      <c r="K1" s="12" t="s">
+        <v>31</v>
+      </c>
+      <c r="L1" s="12" t="s">
+        <v>32</v>
+      </c>
+      <c r="M1" s="12" t="s">
         <v>33</v>
       </c>
-      <c r="I1" s="12" t="s">
+      <c r="N1" s="12" t="s">
         <v>34</v>
       </c>
-      <c r="J1" s="12" t="s">
+      <c r="O1" s="12" t="s">
         <v>35</v>
       </c>
-      <c r="K1" s="12" t="s">
+      <c r="P1" s="12" t="s">
         <v>36</v>
       </c>
-      <c r="L1" s="12" t="s">
+      <c r="Q1" s="12" t="s">
         <v>37</v>
       </c>
-      <c r="M1" s="12" t="s">
+      <c r="R1" s="12" t="s">
         <v>38</v>
       </c>
-      <c r="N1" s="12" t="s">
+      <c r="S1" s="12" t="s">
         <v>39</v>
       </c>
-      <c r="O1" s="12" t="s">
+      <c r="T1" s="11" t="s">
         <v>40</v>
       </c>
-      <c r="P1" s="12" t="s">
+      <c r="U1" s="11" t="s">
         <v>41</v>
-      </c>
-      <c r="Q1" s="12" t="s">
-        <v>42</v>
-      </c>
-      <c r="R1" s="12" t="s">
-        <v>43</v>
-      </c>
-      <c r="S1" s="12" t="s">
-        <v>44</v>
-      </c>
-      <c r="T1" s="11" t="s">
-        <v>45</v>
-      </c>
-      <c r="U1" s="11" t="s">
-        <v>46</v>
       </c>
       <c r="V1" s="10" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="2" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A2" s="13" t="s">
+      <c r="A2" s="14" t="s">
+        <v>62</v>
+      </c>
+      <c r="B2" s="6" t="s">
+        <v>63</v>
+      </c>
+      <c r="C2" s="6" t="s">
+        <v>51</v>
+      </c>
+      <c r="D2" s="6">
+        <v>13</v>
+      </c>
+      <c r="E2" s="31">
+        <f>V2/D2</f>
+        <v>174.45</v>
+      </c>
+      <c r="F2" s="7">
+        <f>'Initial Buys'!R83</f>
+        <v>2267.85</v>
+      </c>
+      <c r="G2" s="24">
+        <v>0</v>
+      </c>
+      <c r="H2" s="22">
+        <v>0</v>
+      </c>
+      <c r="I2" s="20">
+        <v>0</v>
+      </c>
+      <c r="J2" s="22">
+        <v>0</v>
+      </c>
+      <c r="K2" s="20">
+        <v>0</v>
+      </c>
+      <c r="L2" s="22">
+        <v>0</v>
+      </c>
+      <c r="M2" s="20">
+        <v>0</v>
+      </c>
+      <c r="N2" s="22">
+        <v>0</v>
+      </c>
+      <c r="O2" s="20">
+        <v>0</v>
+      </c>
+      <c r="P2" s="22">
+        <v>0</v>
+      </c>
+      <c r="Q2" s="20">
+        <v>0</v>
+      </c>
+      <c r="R2" s="22">
+        <v>0</v>
+      </c>
+      <c r="S2" s="20">
+        <v>0</v>
+      </c>
+      <c r="T2" s="18">
+        <f t="shared" ref="T2" si="0">SUM(H2:S2)</f>
+        <v>0</v>
+      </c>
+      <c r="U2" s="18">
+        <f t="shared" ref="U2" si="1">SUM(G2:S2)</f>
+        <v>0</v>
+      </c>
+      <c r="V2" s="16">
+        <f t="shared" ref="V2" si="2">SUM(F2, U2)</f>
+        <v>2267.85</v>
+      </c>
+    </row>
+    <row r="3" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A3" s="13" t="s">
+        <v>54</v>
+      </c>
+      <c r="B3" s="8" t="s">
+        <v>55</v>
+      </c>
+      <c r="C3" s="8" t="s">
+        <v>6</v>
+      </c>
+      <c r="D3" s="8">
+        <v>28</v>
+      </c>
+      <c r="E3" s="30">
+        <f>V3/D3</f>
+        <v>72.900000000000006</v>
+      </c>
+      <c r="F3" s="9">
+        <f>'Initial Buys'!E40</f>
+        <v>2041.2</v>
+      </c>
+      <c r="G3" s="29">
+        <v>0</v>
+      </c>
+      <c r="H3" s="22">
+        <v>0</v>
+      </c>
+      <c r="I3" s="20">
+        <v>0</v>
+      </c>
+      <c r="J3" s="22">
+        <v>0</v>
+      </c>
+      <c r="K3" s="20">
+        <v>0</v>
+      </c>
+      <c r="L3" s="22">
+        <v>0</v>
+      </c>
+      <c r="M3" s="20">
+        <v>0</v>
+      </c>
+      <c r="N3" s="22">
+        <v>0</v>
+      </c>
+      <c r="O3" s="20">
+        <v>0</v>
+      </c>
+      <c r="P3" s="22">
+        <v>0</v>
+      </c>
+      <c r="Q3" s="20">
+        <v>0</v>
+      </c>
+      <c r="R3" s="22">
+        <v>0</v>
+      </c>
+      <c r="S3" s="20">
+        <v>0</v>
+      </c>
+      <c r="T3" s="17">
+        <f>SUM(H3:S3)</f>
+        <v>0</v>
+      </c>
+      <c r="U3" s="17">
+        <f>SUM(G3:S3)</f>
+        <v>0</v>
+      </c>
+      <c r="V3" s="15">
+        <f>SUM(F3, U3)</f>
+        <v>2041.2</v>
+      </c>
+    </row>
+    <row r="4" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A4" s="14" t="s">
         <v>59</v>
       </c>
-      <c r="B2" s="8" t="s">
+      <c r="B4" s="6" t="s">
         <v>60</v>
       </c>
-      <c r="C2" s="8" t="s">
-        <v>48</v>
-      </c>
-      <c r="D2" s="8">
+      <c r="C4" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="D4" s="6">
+        <v>108</v>
+      </c>
+      <c r="E4" s="31">
+        <f>V4/D4</f>
+        <v>18.568981481481483</v>
+      </c>
+      <c r="F4" s="7">
+        <f>'Initial Buys'!K40</f>
+        <v>2005.45</v>
+      </c>
+      <c r="G4" s="24">
+        <v>0</v>
+      </c>
+      <c r="H4" s="22">
+        <v>0</v>
+      </c>
+      <c r="I4" s="20">
+        <v>0</v>
+      </c>
+      <c r="J4" s="22">
+        <v>0</v>
+      </c>
+      <c r="K4" s="20">
+        <v>0</v>
+      </c>
+      <c r="L4" s="22">
+        <v>0</v>
+      </c>
+      <c r="M4" s="20">
+        <v>0</v>
+      </c>
+      <c r="N4" s="22">
+        <v>0</v>
+      </c>
+      <c r="O4" s="20">
+        <v>0</v>
+      </c>
+      <c r="P4" s="22">
+        <v>0</v>
+      </c>
+      <c r="Q4" s="20">
+        <v>0</v>
+      </c>
+      <c r="R4" s="22">
+        <v>0</v>
+      </c>
+      <c r="S4" s="20">
+        <v>0</v>
+      </c>
+      <c r="T4" s="18">
+        <f>SUM(H4:S4)</f>
+        <v>0</v>
+      </c>
+      <c r="U4" s="18">
+        <f>SUM(G4:S4)</f>
+        <v>0</v>
+      </c>
+      <c r="V4" s="16">
+        <f>SUM(F4, U4)</f>
+        <v>2005.45</v>
+      </c>
+    </row>
+    <row r="5" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A5" s="13" t="s">
+        <v>58</v>
+      </c>
+      <c r="B5" s="8" t="s">
+        <v>61</v>
+      </c>
+      <c r="C5" s="8" t="s">
+        <v>21</v>
+      </c>
+      <c r="D5" s="8">
+        <v>106</v>
+      </c>
+      <c r="E5" s="30">
+        <f>V5/D5</f>
+        <v>18.974999999999998</v>
+      </c>
+      <c r="F5" s="9">
+        <f>'Initial Buys'!H40</f>
+        <v>2011.35</v>
+      </c>
+      <c r="G5" s="29">
+        <v>0</v>
+      </c>
+      <c r="H5" s="22">
+        <v>0</v>
+      </c>
+      <c r="I5" s="20">
+        <v>0</v>
+      </c>
+      <c r="J5" s="22">
+        <v>0</v>
+      </c>
+      <c r="K5" s="20">
+        <v>0</v>
+      </c>
+      <c r="L5" s="22">
+        <v>0</v>
+      </c>
+      <c r="M5" s="20">
+        <v>0</v>
+      </c>
+      <c r="N5" s="22">
+        <v>0</v>
+      </c>
+      <c r="O5" s="20">
+        <v>0</v>
+      </c>
+      <c r="P5" s="22">
+        <v>0</v>
+      </c>
+      <c r="Q5" s="20">
+        <v>0</v>
+      </c>
+      <c r="R5" s="22">
+        <v>0</v>
+      </c>
+      <c r="S5" s="20">
+        <v>0</v>
+      </c>
+      <c r="T5" s="17">
+        <f>SUM(H5:S5)</f>
+        <v>0</v>
+      </c>
+      <c r="U5" s="17">
+        <f>SUM(G5:S5)</f>
+        <v>0</v>
+      </c>
+      <c r="V5" s="15">
+        <f>SUM(F5, U5)</f>
+        <v>2011.35</v>
+      </c>
+    </row>
+    <row r="6" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A6" s="14" t="s">
+        <v>56</v>
+      </c>
+      <c r="B6" s="6" t="s">
+        <v>57</v>
+      </c>
+      <c r="C6" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="D6" s="6">
+        <v>28</v>
+      </c>
+      <c r="E6" s="31">
+        <f>V6/D6</f>
+        <v>71.804999999999993</v>
+      </c>
+      <c r="F6" s="7">
+        <f>'Initial Buys'!F83</f>
+        <v>2010.54</v>
+      </c>
+      <c r="G6" s="24">
+        <v>0</v>
+      </c>
+      <c r="H6" s="22">
+        <v>0</v>
+      </c>
+      <c r="I6" s="20">
+        <v>0</v>
+      </c>
+      <c r="J6" s="22">
+        <v>0</v>
+      </c>
+      <c r="K6" s="20">
+        <v>0</v>
+      </c>
+      <c r="L6" s="22">
+        <v>0</v>
+      </c>
+      <c r="M6" s="20">
+        <v>0</v>
+      </c>
+      <c r="N6" s="22">
+        <v>0</v>
+      </c>
+      <c r="O6" s="20">
+        <v>0</v>
+      </c>
+      <c r="P6" s="22">
+        <v>0</v>
+      </c>
+      <c r="Q6" s="20">
+        <v>0</v>
+      </c>
+      <c r="R6" s="22">
+        <v>0</v>
+      </c>
+      <c r="S6" s="20">
+        <v>0</v>
+      </c>
+      <c r="T6" s="18">
+        <f>SUM(H6:S6)</f>
+        <v>0</v>
+      </c>
+      <c r="U6" s="18">
+        <f>SUM(G6:S6)</f>
+        <v>0</v>
+      </c>
+      <c r="V6" s="16">
+        <f>SUM(F6, U6)</f>
+        <v>2010.54</v>
+      </c>
+    </row>
+    <row r="7" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A7" s="13" t="s">
+        <v>52</v>
+      </c>
+      <c r="B7" s="8" t="s">
+        <v>53</v>
+      </c>
+      <c r="C7" s="8" t="s">
+        <v>43</v>
+      </c>
+      <c r="D7" s="8">
         <v>35</v>
       </c>
-      <c r="E2" s="31">
-        <f t="shared" ref="E2:E15" si="0">V2/D2</f>
+      <c r="E7" s="30">
+        <f t="shared" ref="E7:E15" si="3">V7/D7</f>
         <v>57.1</v>
       </c>
-      <c r="F2" s="9">
+      <c r="F7" s="9">
         <f>'Initial Buys'!B40</f>
         <v>1998.5</v>
       </c>
-      <c r="G2" s="24">
-        <v>0</v>
-      </c>
-      <c r="H2" s="22">
-        <v>0</v>
-      </c>
-      <c r="I2" s="20">
-        <v>0</v>
-      </c>
-      <c r="J2" s="22">
-        <v>0</v>
-      </c>
-      <c r="K2" s="20">
-        <v>0</v>
-      </c>
-      <c r="L2" s="22">
-        <v>0</v>
-      </c>
-      <c r="M2" s="20">
-        <v>0</v>
-      </c>
-      <c r="N2" s="22">
-        <v>0</v>
-      </c>
-      <c r="O2" s="20">
-        <v>0</v>
-      </c>
-      <c r="P2" s="22">
-        <v>0</v>
-      </c>
-      <c r="Q2" s="20">
-        <v>0</v>
-      </c>
-      <c r="R2" s="22">
-        <v>0</v>
-      </c>
-      <c r="S2" s="20">
-        <v>0</v>
-      </c>
-      <c r="T2" s="17">
-        <f>SUM(H2:S2)</f>
-        <v>0</v>
-      </c>
-      <c r="U2" s="17">
-        <f>SUM(G2:S2)</f>
-        <v>0</v>
-      </c>
-      <c r="V2" s="15">
-        <f t="shared" ref="V2:V15" si="1">SUM(F2, U2)</f>
+      <c r="G7" s="29">
+        <v>0</v>
+      </c>
+      <c r="H7" s="22">
+        <v>0</v>
+      </c>
+      <c r="I7" s="20">
+        <v>0</v>
+      </c>
+      <c r="J7" s="22">
+        <v>0</v>
+      </c>
+      <c r="K7" s="20">
+        <v>0</v>
+      </c>
+      <c r="L7" s="22">
+        <v>0</v>
+      </c>
+      <c r="M7" s="20">
+        <v>0</v>
+      </c>
+      <c r="N7" s="22">
+        <v>0</v>
+      </c>
+      <c r="O7" s="20">
+        <v>0</v>
+      </c>
+      <c r="P7" s="22">
+        <v>0</v>
+      </c>
+      <c r="Q7" s="20">
+        <v>0</v>
+      </c>
+      <c r="R7" s="22">
+        <v>0</v>
+      </c>
+      <c r="S7" s="20">
+        <v>0</v>
+      </c>
+      <c r="T7" s="17">
+        <f>SUM(H7:S7)</f>
+        <v>0</v>
+      </c>
+      <c r="U7" s="17">
+        <f>SUM(G7:S7)</f>
+        <v>0</v>
+      </c>
+      <c r="V7" s="15">
+        <f t="shared" ref="V7:V15" si="4">SUM(F7, U7)</f>
         <v>1998.5</v>
       </c>
     </row>
-    <row r="3" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A3" s="14" t="s">
-        <v>61</v>
-      </c>
-      <c r="B3" s="6" t="s">
-        <v>62</v>
-      </c>
-      <c r="C3" s="6" t="s">
+    <row r="8" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A8" s="14" t="s">
+        <v>8</v>
+      </c>
+      <c r="B8" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="C8" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="D3" s="6">
-        <v>28</v>
-      </c>
-      <c r="E3" s="32">
-        <f t="shared" si="0"/>
-        <v>72.900000000000006</v>
-      </c>
-      <c r="F3" s="7">
-        <f>'Initial Buys'!E40</f>
-        <v>2041.2</v>
-      </c>
-      <c r="G3" s="25">
-        <v>0</v>
-      </c>
-      <c r="H3" s="22">
-        <v>0</v>
-      </c>
-      <c r="I3" s="20">
-        <v>0</v>
-      </c>
-      <c r="J3" s="22">
-        <v>0</v>
-      </c>
-      <c r="K3" s="20">
-        <v>0</v>
-      </c>
-      <c r="L3" s="22">
-        <v>0</v>
-      </c>
-      <c r="M3" s="20">
-        <v>0</v>
-      </c>
-      <c r="N3" s="22">
-        <v>0</v>
-      </c>
-      <c r="O3" s="20">
-        <v>0</v>
-      </c>
-      <c r="P3" s="22">
-        <v>0</v>
-      </c>
-      <c r="Q3" s="20">
-        <v>0</v>
-      </c>
-      <c r="R3" s="22">
-        <v>0</v>
-      </c>
-      <c r="S3" s="20">
-        <v>0</v>
-      </c>
-      <c r="T3" s="18">
-        <f t="shared" ref="T3:T15" si="2">SUM(H3:S3)</f>
-        <v>0</v>
-      </c>
-      <c r="U3" s="18">
-        <f t="shared" ref="U3:U15" si="3">SUM(G3:S3)</f>
-        <v>0</v>
-      </c>
-      <c r="V3" s="16">
-        <f>SUM(F3, U3)</f>
-        <v>2041.2</v>
-      </c>
-    </row>
-    <row r="4" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A4" s="13" t="s">
-        <v>63</v>
-      </c>
-      <c r="B4" s="8" t="s">
-        <v>64</v>
-      </c>
-      <c r="C4" s="8" t="s">
+      <c r="D8" s="6">
+        <v>9.3569999999999993</v>
+      </c>
+      <c r="E8" s="31">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="F8" s="7">
+        <f>'Initial Buys'!N40</f>
+        <v>0</v>
+      </c>
+      <c r="G8" s="24">
+        <v>0</v>
+      </c>
+      <c r="H8" s="22">
+        <v>0</v>
+      </c>
+      <c r="I8" s="20">
+        <v>0</v>
+      </c>
+      <c r="J8" s="22">
+        <v>0</v>
+      </c>
+      <c r="K8" s="20">
+        <v>0</v>
+      </c>
+      <c r="L8" s="22">
+        <v>0</v>
+      </c>
+      <c r="M8" s="20">
+        <v>0</v>
+      </c>
+      <c r="N8" s="22">
+        <v>0</v>
+      </c>
+      <c r="O8" s="20">
+        <v>0</v>
+      </c>
+      <c r="P8" s="22">
+        <v>0</v>
+      </c>
+      <c r="Q8" s="20">
+        <v>0</v>
+      </c>
+      <c r="R8" s="22">
+        <v>0</v>
+      </c>
+      <c r="S8" s="20">
+        <v>0</v>
+      </c>
+      <c r="T8" s="18">
+        <f t="shared" ref="T8:T15" si="5">SUM(H8:S8)</f>
+        <v>0</v>
+      </c>
+      <c r="U8" s="18">
+        <f t="shared" ref="U8:U15" si="6">SUM(G8:S8)</f>
+        <v>0</v>
+      </c>
+      <c r="V8" s="16">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A9" s="13" t="s">
+        <v>9</v>
+      </c>
+      <c r="B9" s="8" t="s">
+        <v>17</v>
+      </c>
+      <c r="C9" s="8" t="s">
         <v>6</v>
       </c>
-      <c r="D4" s="8">
-        <v>28</v>
-      </c>
-      <c r="E4" s="31">
-        <f t="shared" si="0"/>
-        <v>71.804999999999993</v>
-      </c>
-      <c r="F4" s="9">
-        <f>'Initial Buys'!F83</f>
-        <v>2010.54</v>
-      </c>
-      <c r="G4" s="30">
-        <v>0</v>
-      </c>
-      <c r="H4" s="22">
-        <v>0</v>
-      </c>
-      <c r="I4" s="20">
-        <v>0</v>
-      </c>
-      <c r="J4" s="22">
-        <v>0</v>
-      </c>
-      <c r="K4" s="20">
-        <v>0</v>
-      </c>
-      <c r="L4" s="22">
-        <v>0</v>
-      </c>
-      <c r="M4" s="20">
-        <v>0</v>
-      </c>
-      <c r="N4" s="22">
-        <v>0</v>
-      </c>
-      <c r="O4" s="20">
-        <v>0</v>
-      </c>
-      <c r="P4" s="22">
-        <v>0</v>
-      </c>
-      <c r="Q4" s="20">
-        <v>0</v>
-      </c>
-      <c r="R4" s="22">
-        <v>0</v>
-      </c>
-      <c r="S4" s="20">
-        <v>0</v>
-      </c>
-      <c r="T4" s="17">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="U4" s="17">
+      <c r="D9" s="8">
+        <v>23.465</v>
+      </c>
+      <c r="E9" s="30">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="V4" s="15">
-        <f>SUM(F4, U4)</f>
-        <v>2010.54</v>
-      </c>
-    </row>
-    <row r="5" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A5" s="14" t="s">
-        <v>7</v>
-      </c>
-      <c r="B5" s="6" t="s">
+      <c r="F9" s="9">
+        <f>'Initial Buys'!Q40</f>
+        <v>0</v>
+      </c>
+      <c r="G9" s="29">
+        <v>0</v>
+      </c>
+      <c r="H9" s="22">
+        <v>0</v>
+      </c>
+      <c r="I9" s="20">
+        <v>0</v>
+      </c>
+      <c r="J9" s="22">
+        <v>0</v>
+      </c>
+      <c r="K9" s="20">
+        <v>0</v>
+      </c>
+      <c r="L9" s="22">
+        <v>0</v>
+      </c>
+      <c r="M9" s="20">
+        <v>0</v>
+      </c>
+      <c r="N9" s="22">
+        <v>0</v>
+      </c>
+      <c r="O9" s="20">
+        <v>0</v>
+      </c>
+      <c r="P9" s="22">
+        <v>0</v>
+      </c>
+      <c r="Q9" s="20">
+        <v>0</v>
+      </c>
+      <c r="R9" s="22">
+        <v>0</v>
+      </c>
+      <c r="S9" s="20">
+        <v>0</v>
+      </c>
+      <c r="T9" s="17">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="U9" s="17">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="V9" s="15">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A10" s="14" t="s">
+        <v>10</v>
+      </c>
+      <c r="B10" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="C10" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="D10" s="6">
+        <v>8.3320000000000007</v>
+      </c>
+      <c r="E10" s="31">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="F10" s="7">
+        <f>'Initial Buys'!T40</f>
+        <v>0</v>
+      </c>
+      <c r="G10" s="24">
+        <v>0</v>
+      </c>
+      <c r="H10" s="22">
+        <v>0</v>
+      </c>
+      <c r="I10" s="20">
+        <v>0</v>
+      </c>
+      <c r="J10" s="22">
+        <v>0</v>
+      </c>
+      <c r="K10" s="20">
+        <v>0</v>
+      </c>
+      <c r="L10" s="22">
+        <v>0</v>
+      </c>
+      <c r="M10" s="20">
+        <v>0</v>
+      </c>
+      <c r="N10" s="22">
+        <v>0</v>
+      </c>
+      <c r="O10" s="20">
+        <v>0</v>
+      </c>
+      <c r="P10" s="22">
+        <v>0</v>
+      </c>
+      <c r="Q10" s="20">
+        <v>0</v>
+      </c>
+      <c r="R10" s="22">
+        <v>0</v>
+      </c>
+      <c r="S10" s="20">
+        <v>0</v>
+      </c>
+      <c r="T10" s="18">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="U10" s="18">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="V10" s="16">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A11" s="13" t="s">
+        <v>11</v>
+      </c>
+      <c r="B11" s="8" t="s">
         <v>19</v>
       </c>
-      <c r="C5" s="6" t="s">
-        <v>11</v>
-      </c>
-      <c r="D5" s="6">
-        <v>21.001999999999999</v>
-      </c>
-      <c r="E5" s="32">
-        <f t="shared" si="0"/>
-        <v>47.604990000952291</v>
-      </c>
-      <c r="F5" s="7">
-        <f>'Initial Buys'!H40</f>
-        <v>999.8</v>
-      </c>
-      <c r="G5" s="25">
-        <v>0</v>
-      </c>
-      <c r="H5" s="22">
-        <v>0</v>
-      </c>
-      <c r="I5" s="20">
-        <v>0</v>
-      </c>
-      <c r="J5" s="22">
-        <v>0</v>
-      </c>
-      <c r="K5" s="20">
-        <v>0</v>
-      </c>
-      <c r="L5" s="22">
-        <v>0</v>
-      </c>
-      <c r="M5" s="20">
-        <v>0</v>
-      </c>
-      <c r="N5" s="22">
-        <v>0</v>
-      </c>
-      <c r="O5" s="20">
-        <v>0</v>
-      </c>
-      <c r="P5" s="22">
-        <v>0</v>
-      </c>
-      <c r="Q5" s="20">
-        <v>0</v>
-      </c>
-      <c r="R5" s="22">
-        <v>0</v>
-      </c>
-      <c r="S5" s="20">
-        <v>0</v>
-      </c>
-      <c r="T5" s="18">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="U5" s="18">
+      <c r="C11" s="8" t="s">
+        <v>6</v>
+      </c>
+      <c r="D11" s="8">
+        <v>11.27</v>
+      </c>
+      <c r="E11" s="30">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="V5" s="16">
-        <f t="shared" si="1"/>
-        <v>999.8</v>
-      </c>
-    </row>
-    <row r="6" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A6" s="13" t="s">
-        <v>9</v>
-      </c>
-      <c r="B6" s="8" t="s">
-        <v>20</v>
-      </c>
-      <c r="C6" s="8" t="s">
-        <v>6</v>
-      </c>
-      <c r="D6" s="8">
-        <v>48.758000000000003</v>
-      </c>
-      <c r="E6" s="31">
-        <f t="shared" si="0"/>
-        <v>33.344681898355141</v>
-      </c>
-      <c r="F6" s="9">
-        <f>'Initial Buys'!K40</f>
-        <v>1625.8200000000002</v>
-      </c>
-      <c r="G6" s="30">
-        <v>0</v>
-      </c>
-      <c r="H6" s="22">
-        <v>0</v>
-      </c>
-      <c r="I6" s="20">
-        <v>0</v>
-      </c>
-      <c r="J6" s="22">
-        <v>0</v>
-      </c>
-      <c r="K6" s="20">
-        <v>0</v>
-      </c>
-      <c r="L6" s="22">
-        <v>0</v>
-      </c>
-      <c r="M6" s="20">
-        <v>0</v>
-      </c>
-      <c r="N6" s="22">
-        <v>0</v>
-      </c>
-      <c r="O6" s="20">
-        <v>0</v>
-      </c>
-      <c r="P6" s="22">
-        <v>0</v>
-      </c>
-      <c r="Q6" s="20">
-        <v>0</v>
-      </c>
-      <c r="R6" s="22">
-        <v>0</v>
-      </c>
-      <c r="S6" s="20">
-        <v>0</v>
-      </c>
-      <c r="T6" s="17">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="U6" s="17">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="V6" s="15">
-        <f t="shared" si="1"/>
-        <v>1625.8200000000002</v>
-      </c>
-    </row>
-    <row r="7" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A7" s="14" t="s">
-        <v>56</v>
-      </c>
-      <c r="B7" s="6" t="s">
-        <v>58</v>
-      </c>
-      <c r="C7" s="6" t="s">
-        <v>57</v>
-      </c>
-      <c r="D7" s="6">
-        <v>33.203000000000003</v>
-      </c>
-      <c r="E7" s="32">
-        <f t="shared" si="0"/>
-        <v>36.018432069391316</v>
-      </c>
-      <c r="F7" s="7">
-        <f>'Initial Buys'!R83</f>
-        <v>1195.92</v>
-      </c>
-      <c r="G7" s="25">
-        <v>0</v>
-      </c>
-      <c r="H7" s="22">
-        <v>0</v>
-      </c>
-      <c r="I7" s="20">
-        <v>0</v>
-      </c>
-      <c r="J7" s="22">
-        <v>0</v>
-      </c>
-      <c r="K7" s="20">
-        <v>0</v>
-      </c>
-      <c r="L7" s="22">
-        <v>0</v>
-      </c>
-      <c r="M7" s="20">
-        <v>0</v>
-      </c>
-      <c r="N7" s="22">
-        <v>0</v>
-      </c>
-      <c r="O7" s="20">
-        <v>0</v>
-      </c>
-      <c r="P7" s="22">
-        <v>0</v>
-      </c>
-      <c r="Q7" s="20">
-        <v>0</v>
-      </c>
-      <c r="R7" s="22">
-        <v>0</v>
-      </c>
-      <c r="S7" s="20">
-        <v>0</v>
-      </c>
-      <c r="T7" s="18">
-        <f t="shared" ref="T7" si="4">SUM(H7:S7)</f>
-        <v>0</v>
-      </c>
-      <c r="U7" s="18">
-        <f t="shared" ref="U7" si="5">SUM(G7:S7)</f>
-        <v>0</v>
-      </c>
-      <c r="V7" s="16">
-        <f t="shared" ref="V7" si="6">SUM(F7, U7)</f>
-        <v>1195.92</v>
-      </c>
-    </row>
-    <row r="8" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A8" s="13" t="s">
-        <v>10</v>
-      </c>
-      <c r="B8" s="8" t="s">
-        <v>21</v>
-      </c>
-      <c r="C8" s="8" t="s">
-        <v>6</v>
-      </c>
-      <c r="D8" s="8">
-        <v>9.3569999999999993</v>
-      </c>
-      <c r="E8" s="31">
-        <f t="shared" si="0"/>
-        <v>114.27701186277653</v>
-      </c>
-      <c r="F8" s="9">
-        <f>'Initial Buys'!N40</f>
-        <v>1069.29</v>
-      </c>
-      <c r="G8" s="30">
-        <v>0</v>
-      </c>
-      <c r="H8" s="22">
-        <v>0</v>
-      </c>
-      <c r="I8" s="20">
-        <v>0</v>
-      </c>
-      <c r="J8" s="22">
-        <v>0</v>
-      </c>
-      <c r="K8" s="20">
-        <v>0</v>
-      </c>
-      <c r="L8" s="22">
-        <v>0</v>
-      </c>
-      <c r="M8" s="20">
-        <v>0</v>
-      </c>
-      <c r="N8" s="22">
-        <v>0</v>
-      </c>
-      <c r="O8" s="20">
-        <v>0</v>
-      </c>
-      <c r="P8" s="22">
-        <v>0</v>
-      </c>
-      <c r="Q8" s="20">
-        <v>0</v>
-      </c>
-      <c r="R8" s="22">
-        <v>0</v>
-      </c>
-      <c r="S8" s="20">
-        <v>0</v>
-      </c>
-      <c r="T8" s="17">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="U8" s="17">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="V8" s="15">
-        <f t="shared" si="1"/>
-        <v>1069.29</v>
-      </c>
-    </row>
-    <row r="9" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A9" s="14" t="s">
-        <v>12</v>
-      </c>
-      <c r="B9" s="6" t="s">
-        <v>22</v>
-      </c>
-      <c r="C9" s="6" t="s">
-        <v>6</v>
-      </c>
-      <c r="D9" s="6">
-        <v>23.465</v>
-      </c>
-      <c r="E9" s="32">
-        <f t="shared" si="0"/>
-        <v>80.672917110590248</v>
-      </c>
-      <c r="F9" s="7">
-        <f>'Initial Buys'!Q40</f>
-        <v>1892.99</v>
-      </c>
-      <c r="G9" s="25">
-        <v>0</v>
-      </c>
-      <c r="H9" s="22">
-        <v>0</v>
-      </c>
-      <c r="I9" s="20">
-        <v>0</v>
-      </c>
-      <c r="J9" s="22">
-        <v>0</v>
-      </c>
-      <c r="K9" s="20">
-        <v>0</v>
-      </c>
-      <c r="L9" s="22">
-        <v>0</v>
-      </c>
-      <c r="M9" s="20">
-        <v>0</v>
-      </c>
-      <c r="N9" s="22">
-        <v>0</v>
-      </c>
-      <c r="O9" s="20">
-        <v>0</v>
-      </c>
-      <c r="P9" s="22">
-        <v>0</v>
-      </c>
-      <c r="Q9" s="20">
-        <v>0</v>
-      </c>
-      <c r="R9" s="22">
-        <v>0</v>
-      </c>
-      <c r="S9" s="20">
-        <v>0</v>
-      </c>
-      <c r="T9" s="18">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="U9" s="18">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="V9" s="16">
-        <f t="shared" si="1"/>
-        <v>1892.99</v>
-      </c>
-    </row>
-    <row r="10" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A10" s="13" t="s">
-        <v>13</v>
-      </c>
-      <c r="B10" s="8" t="s">
-        <v>23</v>
-      </c>
-      <c r="C10" s="8" t="s">
-        <v>26</v>
-      </c>
-      <c r="D10" s="8">
-        <v>8.3320000000000007</v>
-      </c>
-      <c r="E10" s="31">
-        <f t="shared" si="0"/>
-        <v>113.77820451272203</v>
-      </c>
-      <c r="F10" s="9">
-        <f>'Initial Buys'!T40</f>
-        <v>948</v>
-      </c>
-      <c r="G10" s="30">
-        <v>0</v>
-      </c>
-      <c r="H10" s="22">
-        <v>0</v>
-      </c>
-      <c r="I10" s="20">
-        <v>0</v>
-      </c>
-      <c r="J10" s="22">
-        <v>0</v>
-      </c>
-      <c r="K10" s="20">
-        <v>0</v>
-      </c>
-      <c r="L10" s="22">
-        <v>0</v>
-      </c>
-      <c r="M10" s="20">
-        <v>0</v>
-      </c>
-      <c r="N10" s="22">
-        <v>0</v>
-      </c>
-      <c r="O10" s="20">
-        <v>0</v>
-      </c>
-      <c r="P10" s="22">
-        <v>0</v>
-      </c>
-      <c r="Q10" s="20">
-        <v>0</v>
-      </c>
-      <c r="R10" s="22">
-        <v>0</v>
-      </c>
-      <c r="S10" s="20">
-        <v>0</v>
-      </c>
-      <c r="T10" s="17">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="U10" s="17">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="V10" s="15">
-        <f t="shared" si="1"/>
-        <v>948</v>
-      </c>
-    </row>
-    <row r="11" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A11" s="14" t="s">
-        <v>14</v>
-      </c>
-      <c r="B11" s="6" t="s">
-        <v>24</v>
-      </c>
-      <c r="C11" s="6" t="s">
-        <v>6</v>
-      </c>
-      <c r="D11" s="6">
-        <v>11.27</v>
-      </c>
-      <c r="E11" s="32">
-        <f t="shared" si="0"/>
-        <v>94.746228926353155</v>
-      </c>
-      <c r="F11" s="7">
+      <c r="F11" s="9">
         <f>'Initial Buys'!W40</f>
-        <v>1062.5999999999999</v>
-      </c>
-      <c r="G11" s="25">
+        <v>0</v>
+      </c>
+      <c r="G11" s="29">
         <v>0</v>
       </c>
       <c r="H11" s="22">
-        <v>5.19</v>
+        <v>0</v>
       </c>
       <c r="I11" s="20">
         <v>0</v>
@@ -2274,41 +2234,41 @@
       <c r="S11" s="20">
         <v>0</v>
       </c>
-      <c r="T11" s="18">
-        <f t="shared" si="2"/>
-        <v>5.19</v>
-      </c>
-      <c r="U11" s="18">
-        <f t="shared" si="3"/>
-        <v>5.19</v>
-      </c>
-      <c r="V11" s="16">
-        <f t="shared" si="1"/>
-        <v>1067.79</v>
+      <c r="T11" s="17">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="U11" s="17">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="V11" s="15">
+        <f t="shared" si="4"/>
+        <v>0</v>
       </c>
     </row>
     <row r="12" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A12" s="13" t="s">
-        <v>50</v>
+        <v>45</v>
       </c>
       <c r="B12" s="8" t="s">
-        <v>54</v>
+        <v>49</v>
       </c>
       <c r="C12" s="8" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D12" s="8">
         <v>4.0430000000000001</v>
       </c>
-      <c r="E12" s="31">
-        <f t="shared" si="0"/>
-        <v>210.71481573089289</v>
+      <c r="E12" s="30">
+        <f t="shared" si="3"/>
+        <v>0</v>
       </c>
       <c r="F12" s="9">
         <f>'Initial Buys'!L83</f>
-        <v>851.92</v>
-      </c>
-      <c r="G12" s="30">
+        <v>0</v>
+      </c>
+      <c r="G12" s="29">
         <v>0</v>
       </c>
       <c r="H12" s="22">
@@ -2347,41 +2307,41 @@
       <c r="S12" s="20">
         <v>0</v>
       </c>
-      <c r="T12" s="35">
-        <f t="shared" si="2"/>
+      <c r="T12" s="17">
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="U12" s="17">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="V12" s="15">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A13" s="13" t="s">
+        <v>46</v>
+      </c>
+      <c r="B13" s="8" t="s">
+        <v>48</v>
+      </c>
+      <c r="C13" s="8" t="s">
+        <v>6</v>
+      </c>
+      <c r="D13" s="8">
+        <v>10.073</v>
+      </c>
+      <c r="E13" s="30">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="V12" s="15">
-        <f t="shared" si="1"/>
-        <v>851.92</v>
-      </c>
-    </row>
-    <row r="13" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A13" s="14" t="s">
-        <v>51</v>
-      </c>
-      <c r="B13" s="6" t="s">
-        <v>53</v>
-      </c>
-      <c r="C13" s="6" t="s">
-        <v>6</v>
-      </c>
-      <c r="D13" s="6">
-        <v>10.073</v>
-      </c>
-      <c r="E13" s="32">
-        <f t="shared" si="0"/>
-        <v>116.4813858830537</v>
-      </c>
-      <c r="F13" s="7">
+      <c r="F13" s="9">
         <f>'Initial Buys'!O83</f>
-        <v>1173.317</v>
-      </c>
-      <c r="G13" s="25">
+        <v>0</v>
+      </c>
+      <c r="G13" s="29">
         <v>0</v>
       </c>
       <c r="H13" s="22">
@@ -2420,25 +2380,25 @@
       <c r="S13" s="20">
         <v>0</v>
       </c>
-      <c r="T13" s="18">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="U13" s="18">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="V13" s="16">
-        <f t="shared" si="1"/>
-        <v>1173.317</v>
+      <c r="T13" s="17">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="U13" s="17">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="V13" s="15">
+        <f t="shared" si="4"/>
+        <v>0</v>
       </c>
     </row>
     <row r="14" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A14" s="13" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="B14" s="8" t="s">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="C14" s="8" t="s">
         <v>6</v>
@@ -2446,15 +2406,15 @@
       <c r="D14" s="8">
         <v>17.311</v>
       </c>
-      <c r="E14" s="31">
-        <f t="shared" si="0"/>
-        <v>118.11738201143781</v>
+      <c r="E14" s="30">
+        <f t="shared" si="3"/>
+        <v>0</v>
       </c>
       <c r="F14" s="9">
         <f>'Initial Buys'!Z40</f>
-        <v>2044.73</v>
-      </c>
-      <c r="G14" s="30">
+        <v>0</v>
+      </c>
+      <c r="G14" s="29">
         <v>0</v>
       </c>
       <c r="H14" s="22">
@@ -2494,40 +2454,40 @@
         <v>0</v>
       </c>
       <c r="T14" s="17">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="U14" s="17">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="V14" s="15">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A15" s="13" t="s">
+        <v>44</v>
+      </c>
+      <c r="B15" s="8" t="s">
+        <v>47</v>
+      </c>
+      <c r="C15" s="33" t="s">
+        <v>50</v>
+      </c>
+      <c r="D15" s="8">
+        <v>20.471</v>
+      </c>
+      <c r="E15" s="30">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="V14" s="15">
-        <f t="shared" si="1"/>
-        <v>2044.73</v>
-      </c>
-    </row>
-    <row r="15" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A15" s="14" t="s">
-        <v>49</v>
-      </c>
-      <c r="B15" s="6" t="s">
-        <v>52</v>
-      </c>
-      <c r="C15" s="34" t="s">
-        <v>55</v>
-      </c>
-      <c r="D15" s="6">
-        <v>20.471</v>
-      </c>
-      <c r="E15" s="32">
-        <f t="shared" si="0"/>
-        <v>48.820282350642373</v>
-      </c>
-      <c r="F15" s="7">
+      <c r="F15" s="9">
         <f>'Initial Buys'!I83</f>
-        <v>999.4</v>
-      </c>
-      <c r="G15" s="25">
+        <v>0</v>
+      </c>
+      <c r="G15" s="29">
         <v>0</v>
       </c>
       <c r="H15" s="22">
@@ -2566,41 +2526,41 @@
       <c r="S15" s="20">
         <v>0</v>
       </c>
-      <c r="T15" s="18">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="U15" s="18">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="V15" s="16">
-        <f t="shared" si="1"/>
-        <v>999.4</v>
+      <c r="T15" s="17">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="U15" s="17">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="V15" s="15">
+        <f t="shared" si="4"/>
+        <v>0</v>
       </c>
     </row>
     <row r="16" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A16" s="13" t="s">
-        <v>28</v>
+        <v>23</v>
       </c>
       <c r="B16" s="8" t="s">
-        <v>30</v>
+        <v>25</v>
       </c>
       <c r="C16" s="8" t="s">
-        <v>29</v>
+        <v>24</v>
       </c>
       <c r="D16" s="8">
         <v>35.188000000000002</v>
       </c>
-      <c r="E16" s="31">
+      <c r="E16" s="30">
         <f>V16/D16</f>
-        <v>38.54097987950437</v>
+        <v>0</v>
       </c>
       <c r="F16" s="9">
         <f>'Initial Buys'!AF40</f>
-        <v>1356.1799999999998</v>
-      </c>
-      <c r="G16" s="30">
+        <v>0</v>
+      </c>
+      <c r="G16" s="29">
         <v>0</v>
       </c>
       <c r="H16" s="22">
@@ -2649,35 +2609,35 @@
       </c>
       <c r="V16" s="15">
         <f>SUM(F16, U16)</f>
-        <v>1356.1799999999998</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A17" s="14" t="s">
-        <v>16</v>
-      </c>
-      <c r="B17" s="6" t="s">
-        <v>27</v>
-      </c>
-      <c r="C17" s="6" t="s">
+      <c r="A17" s="13" t="s">
+        <v>13</v>
+      </c>
+      <c r="B17" s="8" t="s">
+        <v>22</v>
+      </c>
+      <c r="C17" s="8" t="s">
         <v>6</v>
       </c>
-      <c r="D17" s="6">
+      <c r="D17" s="8">
         <v>15.523999999999999</v>
       </c>
-      <c r="E17" s="32">
+      <c r="E17" s="30">
         <f>V17/D17</f>
-        <v>69.969080133986097</v>
-      </c>
-      <c r="F17" s="7">
+        <v>0</v>
+      </c>
+      <c r="F17" s="9">
         <f>'Initial Buys'!AC40</f>
-        <v>1078.6500000000001</v>
-      </c>
-      <c r="G17" s="25">
+        <v>0</v>
+      </c>
+      <c r="G17" s="29">
         <v>0</v>
       </c>
       <c r="H17" s="22">
-        <v>7.55</v>
+        <v>0</v>
       </c>
       <c r="I17" s="20">
         <v>0</v>
@@ -2712,41 +2672,41 @@
       <c r="S17" s="20">
         <v>0</v>
       </c>
-      <c r="T17" s="18">
+      <c r="T17" s="17">
         <f>SUM(H17:S17)</f>
-        <v>7.55</v>
-      </c>
-      <c r="U17" s="18">
+        <v>0</v>
+      </c>
+      <c r="U17" s="17">
         <f>SUM(G17:S17)</f>
-        <v>7.55</v>
-      </c>
-      <c r="V17" s="16">
+        <v>0</v>
+      </c>
+      <c r="V17" s="15">
         <f>SUM(F17, U17)</f>
-        <v>1086.2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="18" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A18" s="13" t="s">
-        <v>32</v>
+        <v>27</v>
       </c>
       <c r="B18" s="8" t="s">
-        <v>31</v>
+        <v>26</v>
       </c>
       <c r="C18" s="8" t="s">
-        <v>26</v>
+        <v>21</v>
       </c>
       <c r="D18" s="8">
         <v>12.458</v>
       </c>
-      <c r="E18" s="31">
+      <c r="E18" s="30">
         <f t="shared" ref="E18" si="7">V18/D18</f>
-        <v>83.695617274040785</v>
+        <v>0</v>
       </c>
       <c r="F18" s="9">
         <f>'Initial Buys'!B83</f>
-        <v>1042.68</v>
-      </c>
-      <c r="G18" s="30">
+        <v>0</v>
+      </c>
+      <c r="G18" s="29">
         <v>0</v>
       </c>
       <c r="H18" s="22">
@@ -2795,82 +2755,82 @@
       </c>
       <c r="V18" s="15">
         <f t="shared" ref="V18" si="10">SUM(F18, U18)</f>
-        <v>1042.68</v>
+        <v>0</v>
       </c>
     </row>
     <row r="19" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A19" s="26"/>
-      <c r="B19" s="26"/>
-      <c r="C19" s="26"/>
-      <c r="D19" s="26"/>
-      <c r="E19" s="26"/>
-      <c r="F19" s="27">
-        <f t="shared" ref="F19:V19" si="11">SUM(F2:F18)</f>
-        <v>23391.537000000004</v>
-      </c>
-      <c r="G19" s="28">
+      <c r="A19" s="25"/>
+      <c r="B19" s="25"/>
+      <c r="C19" s="25"/>
+      <c r="D19" s="25"/>
+      <c r="E19" s="25"/>
+      <c r="F19" s="26">
+        <f t="shared" ref="F19:V19" si="11">SUM(F7:F18)</f>
+        <v>1998.5</v>
+      </c>
+      <c r="G19" s="27">
         <f t="shared" si="11"/>
         <v>0</v>
       </c>
-      <c r="H19" s="29">
+      <c r="H19" s="28">
         <f t="shared" si="11"/>
-        <v>12.74</v>
-      </c>
-      <c r="I19" s="28">
+        <v>0</v>
+      </c>
+      <c r="I19" s="27">
         <f t="shared" si="11"/>
         <v>0</v>
       </c>
-      <c r="J19" s="29">
+      <c r="J19" s="28">
         <f t="shared" si="11"/>
         <v>0</v>
       </c>
-      <c r="K19" s="28">
+      <c r="K19" s="27">
         <f t="shared" si="11"/>
         <v>0</v>
       </c>
-      <c r="L19" s="29">
+      <c r="L19" s="28">
         <f t="shared" si="11"/>
         <v>0</v>
       </c>
-      <c r="M19" s="28">
+      <c r="M19" s="27">
         <f t="shared" si="11"/>
         <v>0</v>
       </c>
-      <c r="N19" s="29">
+      <c r="N19" s="28">
         <f t="shared" si="11"/>
         <v>0</v>
       </c>
-      <c r="O19" s="28">
+      <c r="O19" s="27">
         <f t="shared" si="11"/>
         <v>0</v>
       </c>
-      <c r="P19" s="29">
+      <c r="P19" s="28">
         <f t="shared" si="11"/>
         <v>0</v>
       </c>
-      <c r="Q19" s="28">
+      <c r="Q19" s="27">
         <f t="shared" si="11"/>
         <v>0</v>
       </c>
-      <c r="R19" s="29">
+      <c r="R19" s="28">
         <f t="shared" si="11"/>
         <v>0</v>
       </c>
-      <c r="S19" s="28">
+      <c r="S19" s="27">
         <f t="shared" si="11"/>
         <v>0</v>
       </c>
-      <c r="T19" s="28">
+      <c r="T19" s="27">
         <f t="shared" si="11"/>
-        <v>12.74</v>
-      </c>
-      <c r="U19" s="28">
+        <v>0</v>
+      </c>
+      <c r="U19" s="27">
         <f t="shared" si="11"/>
-        <v>12.74</v>
+        <v>0</v>
       </c>
       <c r="V19" s="21">
-        <f t="shared" si="11"/>
-        <v>23404.277000000002</v>
+        <f>SUM(V2:V18)</f>
+        <v>12334.89</v>
       </c>
     </row>
   </sheetData>

--- a/DividendLiberty/Traditional IRA.xlsx
+++ b/DividendLiberty/Traditional IRA.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="25200" windowHeight="11985" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="25200" windowHeight="11985"/>
   </bookViews>
   <sheets>
     <sheet name="Initial Buys" sheetId="3" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="107" uniqueCount="64">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="107" uniqueCount="65">
   <si>
     <t>Symbols</t>
   </si>
@@ -51,9 +51,6 @@
     <t>Industrials</t>
   </si>
   <si>
-    <t>JNJ</t>
-  </si>
-  <si>
     <t>KHC</t>
   </si>
   <si>
@@ -75,9 +72,6 @@
     <t>Date</t>
   </si>
   <si>
-    <t>Johnson &amp; Johnson</t>
-  </si>
-  <si>
     <t>Kraft Heinz</t>
   </si>
   <si>
@@ -217,6 +211,15 @@
   </si>
   <si>
     <t>Apple Inc</t>
+  </si>
+  <si>
+    <t>O</t>
+  </si>
+  <si>
+    <t>Realty Income Corporation</t>
+  </si>
+  <si>
+    <t>Financial</t>
   </si>
 </sst>
 </file>
@@ -662,8 +665,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AF83"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="Q44" sqref="Q44"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="M3" sqref="M3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -700,78 +703,78 @@
   <sheetData>
     <row r="1" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A1" s="3" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B1" s="23" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="C1" s="2"/>
       <c r="D1" s="3" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="E1" s="23" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="F1" s="2"/>
       <c r="G1" s="3" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="H1" s="23" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="I1" s="2"/>
       <c r="J1" s="3" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="K1" s="23" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="L1" s="2"/>
       <c r="M1" s="3" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="N1" s="23" t="s">
-        <v>8</v>
+        <v>62</v>
       </c>
       <c r="O1" s="2"/>
       <c r="P1" s="3" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="Q1" s="23" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="R1" s="2"/>
       <c r="S1" s="3" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="T1" s="23" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="U1" s="2"/>
       <c r="V1" s="3" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="W1" s="23" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="X1" s="2"/>
       <c r="Y1" s="3" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="Z1" s="23" t="s">
+        <v>11</v>
+      </c>
+      <c r="AB1" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="AC1" s="23" t="s">
         <v>12</v>
       </c>
-      <c r="AB1" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="AC1" s="23" t="s">
-        <v>13</v>
-      </c>
       <c r="AE1" s="3" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="AF1" s="23" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
     </row>
     <row r="2" spans="1:32" x14ac:dyDescent="0.25">
@@ -800,10 +803,10 @@
         <v>2005.45</v>
       </c>
       <c r="M2" s="4">
-        <v>42550</v>
+        <v>43110</v>
       </c>
       <c r="N2" s="19">
-        <v>0</v>
+        <v>2177.92</v>
       </c>
       <c r="P2" s="4">
         <v>42625</v>
@@ -1276,7 +1279,7 @@
       </c>
       <c r="N40" s="19">
         <f>SUM(N2:N39)</f>
-        <v>0</v>
+        <v>2177.92</v>
       </c>
       <c r="Q40" s="19">
         <f>SUM(Q2:Q39)</f>
@@ -1305,40 +1308,40 @@
     </row>
     <row r="42" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A42" s="3" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B42" s="23" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="E42" s="3" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="F42" s="23" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="H42" s="3" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="I42" s="23" t="s">
+        <v>42</v>
+      </c>
+      <c r="K42" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="L42" s="23" t="s">
+        <v>43</v>
+      </c>
+      <c r="N42" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="O42" s="23" t="s">
         <v>44</v>
       </c>
-      <c r="K42" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="L42" s="23" t="s">
-        <v>45</v>
-      </c>
-      <c r="N42" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="O42" s="23" t="s">
-        <v>46</v>
-      </c>
       <c r="Q42" s="3" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="R42" s="23" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
     </row>
     <row r="43" spans="1:32" x14ac:dyDescent="0.25">
@@ -1419,14 +1422,14 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:V19"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="P28" sqref="P28"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="T18" sqref="T18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="8.7109375" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="18.140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="25" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="23.7109375" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="7.28515625" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="10.5703125" bestFit="1" customWidth="1"/>
@@ -1466,52 +1469,52 @@
         <v>4</v>
       </c>
       <c r="F1" s="11" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="G1" s="12" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="H1" s="12" t="s">
+        <v>26</v>
+      </c>
+      <c r="I1" s="12" t="s">
+        <v>27</v>
+      </c>
+      <c r="J1" s="12" t="s">
         <v>28</v>
       </c>
-      <c r="I1" s="12" t="s">
+      <c r="K1" s="12" t="s">
         <v>29</v>
       </c>
-      <c r="J1" s="12" t="s">
+      <c r="L1" s="12" t="s">
         <v>30</v>
       </c>
-      <c r="K1" s="12" t="s">
+      <c r="M1" s="12" t="s">
         <v>31</v>
       </c>
-      <c r="L1" s="12" t="s">
+      <c r="N1" s="12" t="s">
         <v>32</v>
       </c>
-      <c r="M1" s="12" t="s">
+      <c r="O1" s="12" t="s">
         <v>33</v>
       </c>
-      <c r="N1" s="12" t="s">
+      <c r="P1" s="12" t="s">
         <v>34</v>
       </c>
-      <c r="O1" s="12" t="s">
+      <c r="Q1" s="12" t="s">
         <v>35</v>
       </c>
-      <c r="P1" s="12" t="s">
+      <c r="R1" s="12" t="s">
         <v>36</v>
       </c>
-      <c r="Q1" s="12" t="s">
+      <c r="S1" s="12" t="s">
         <v>37</v>
       </c>
-      <c r="R1" s="12" t="s">
+      <c r="T1" s="11" t="s">
         <v>38</v>
       </c>
-      <c r="S1" s="12" t="s">
+      <c r="U1" s="11" t="s">
         <v>39</v>
-      </c>
-      <c r="T1" s="11" t="s">
-        <v>40</v>
-      </c>
-      <c r="U1" s="11" t="s">
-        <v>41</v>
       </c>
       <c r="V1" s="10" t="s">
         <v>5</v>
@@ -1519,13 +1522,13 @@
     </row>
     <row r="2" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A2" s="14" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="B2" s="6" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="C2" s="6" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="D2" s="6">
         <v>13</v>
@@ -1592,10 +1595,10 @@
     </row>
     <row r="3" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A3" s="13" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="B3" s="8" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="C3" s="8" t="s">
         <v>6</v>
@@ -1665,10 +1668,10 @@
     </row>
     <row r="4" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A4" s="14" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="B4" s="6" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="C4" s="6" t="s">
         <v>7</v>
@@ -1738,13 +1741,13 @@
     </row>
     <row r="5" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A5" s="13" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="B5" s="8" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="C5" s="8" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="D5" s="8">
         <v>106</v>
@@ -1811,10 +1814,10 @@
     </row>
     <row r="6" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A6" s="14" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="B6" s="6" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="C6" s="6" t="s">
         <v>6</v>
@@ -1884,156 +1887,156 @@
     </row>
     <row r="7" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A7" s="13" t="s">
-        <v>52</v>
+        <v>62</v>
       </c>
       <c r="B7" s="8" t="s">
-        <v>53</v>
+        <v>63</v>
       </c>
       <c r="C7" s="8" t="s">
-        <v>43</v>
+        <v>64</v>
       </c>
       <c r="D7" s="8">
+        <v>41</v>
+      </c>
+      <c r="E7" s="30">
+        <f>V7/D7</f>
+        <v>53.120000000000005</v>
+      </c>
+      <c r="F7" s="9">
+        <f>'Initial Buys'!N40</f>
+        <v>2177.92</v>
+      </c>
+      <c r="G7" s="29">
+        <v>0</v>
+      </c>
+      <c r="H7" s="22">
+        <v>0</v>
+      </c>
+      <c r="I7" s="20">
+        <v>0</v>
+      </c>
+      <c r="J7" s="22">
+        <v>0</v>
+      </c>
+      <c r="K7" s="20">
+        <v>0</v>
+      </c>
+      <c r="L7" s="22">
+        <v>0</v>
+      </c>
+      <c r="M7" s="20">
+        <v>0</v>
+      </c>
+      <c r="N7" s="22">
+        <v>0</v>
+      </c>
+      <c r="O7" s="20">
+        <v>0</v>
+      </c>
+      <c r="P7" s="22">
+        <v>0</v>
+      </c>
+      <c r="Q7" s="20">
+        <v>0</v>
+      </c>
+      <c r="R7" s="22">
+        <v>0</v>
+      </c>
+      <c r="S7" s="20">
+        <v>0</v>
+      </c>
+      <c r="T7" s="17">
+        <f>SUM(H7:S7)</f>
+        <v>0</v>
+      </c>
+      <c r="U7" s="17">
+        <f>SUM(G7:S7)</f>
+        <v>0</v>
+      </c>
+      <c r="V7" s="15">
+        <f>SUM(F7, U7)</f>
+        <v>2177.92</v>
+      </c>
+    </row>
+    <row r="8" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A8" s="14" t="s">
+        <v>50</v>
+      </c>
+      <c r="B8" s="6" t="s">
+        <v>51</v>
+      </c>
+      <c r="C8" s="6" t="s">
+        <v>41</v>
+      </c>
+      <c r="D8" s="6">
         <v>35</v>
       </c>
-      <c r="E7" s="30">
-        <f t="shared" ref="E7:E15" si="3">V7/D7</f>
+      <c r="E8" s="31">
+        <f t="shared" ref="E8:E15" si="3">V8/D8</f>
         <v>57.1</v>
       </c>
-      <c r="F7" s="9">
+      <c r="F8" s="7">
         <f>'Initial Buys'!B40</f>
         <v>1998.5</v>
       </c>
-      <c r="G7" s="29">
-        <v>0</v>
-      </c>
-      <c r="H7" s="22">
-        <v>0</v>
-      </c>
-      <c r="I7" s="20">
-        <v>0</v>
-      </c>
-      <c r="J7" s="22">
-        <v>0</v>
-      </c>
-      <c r="K7" s="20">
-        <v>0</v>
-      </c>
-      <c r="L7" s="22">
-        <v>0</v>
-      </c>
-      <c r="M7" s="20">
-        <v>0</v>
-      </c>
-      <c r="N7" s="22">
-        <v>0</v>
-      </c>
-      <c r="O7" s="20">
-        <v>0</v>
-      </c>
-      <c r="P7" s="22">
-        <v>0</v>
-      </c>
-      <c r="Q7" s="20">
-        <v>0</v>
-      </c>
-      <c r="R7" s="22">
-        <v>0</v>
-      </c>
-      <c r="S7" s="20">
-        <v>0</v>
-      </c>
-      <c r="T7" s="17">
-        <f>SUM(H7:S7)</f>
-        <v>0</v>
-      </c>
-      <c r="U7" s="17">
-        <f>SUM(G7:S7)</f>
-        <v>0</v>
-      </c>
-      <c r="V7" s="15">
-        <f t="shared" ref="V7:V15" si="4">SUM(F7, U7)</f>
+      <c r="G8" s="24">
+        <v>0</v>
+      </c>
+      <c r="H8" s="22">
+        <v>0</v>
+      </c>
+      <c r="I8" s="20">
+        <v>0</v>
+      </c>
+      <c r="J8" s="22">
+        <v>0</v>
+      </c>
+      <c r="K8" s="20">
+        <v>0</v>
+      </c>
+      <c r="L8" s="22">
+        <v>0</v>
+      </c>
+      <c r="M8" s="20">
+        <v>0</v>
+      </c>
+      <c r="N8" s="22">
+        <v>0</v>
+      </c>
+      <c r="O8" s="20">
+        <v>0</v>
+      </c>
+      <c r="P8" s="22">
+        <v>0</v>
+      </c>
+      <c r="Q8" s="20">
+        <v>0</v>
+      </c>
+      <c r="R8" s="22">
+        <v>0</v>
+      </c>
+      <c r="S8" s="20">
+        <v>0</v>
+      </c>
+      <c r="T8" s="18">
+        <f>SUM(H8:S8)</f>
+        <v>0</v>
+      </c>
+      <c r="U8" s="18">
+        <f>SUM(G8:S8)</f>
+        <v>0</v>
+      </c>
+      <c r="V8" s="16">
+        <f t="shared" ref="V8:V15" si="4">SUM(F8, U8)</f>
         <v>1998.5</v>
-      </c>
-    </row>
-    <row r="8" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A8" s="14" t="s">
-        <v>8</v>
-      </c>
-      <c r="B8" s="6" t="s">
-        <v>16</v>
-      </c>
-      <c r="C8" s="6" t="s">
-        <v>6</v>
-      </c>
-      <c r="D8" s="6">
-        <v>9.3569999999999993</v>
-      </c>
-      <c r="E8" s="31">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="F8" s="7">
-        <f>'Initial Buys'!N40</f>
-        <v>0</v>
-      </c>
-      <c r="G8" s="24">
-        <v>0</v>
-      </c>
-      <c r="H8" s="22">
-        <v>0</v>
-      </c>
-      <c r="I8" s="20">
-        <v>0</v>
-      </c>
-      <c r="J8" s="22">
-        <v>0</v>
-      </c>
-      <c r="K8" s="20">
-        <v>0</v>
-      </c>
-      <c r="L8" s="22">
-        <v>0</v>
-      </c>
-      <c r="M8" s="20">
-        <v>0</v>
-      </c>
-      <c r="N8" s="22">
-        <v>0</v>
-      </c>
-      <c r="O8" s="20">
-        <v>0</v>
-      </c>
-      <c r="P8" s="22">
-        <v>0</v>
-      </c>
-      <c r="Q8" s="20">
-        <v>0</v>
-      </c>
-      <c r="R8" s="22">
-        <v>0</v>
-      </c>
-      <c r="S8" s="20">
-        <v>0</v>
-      </c>
-      <c r="T8" s="18">
-        <f t="shared" ref="T8:T15" si="5">SUM(H8:S8)</f>
-        <v>0</v>
-      </c>
-      <c r="U8" s="18">
-        <f t="shared" ref="U8:U15" si="6">SUM(G8:S8)</f>
-        <v>0</v>
-      </c>
-      <c r="V8" s="16">
-        <f t="shared" si="4"/>
-        <v>0</v>
       </c>
     </row>
     <row r="9" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A9" s="13" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B9" s="8" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="C9" s="8" t="s">
         <v>6</v>
@@ -2089,11 +2092,11 @@
         <v>0</v>
       </c>
       <c r="T9" s="17">
-        <f t="shared" si="5"/>
+        <f t="shared" ref="T9:T15" si="5">SUM(H9:S9)</f>
         <v>0</v>
       </c>
       <c r="U9" s="17">
-        <f t="shared" si="6"/>
+        <f t="shared" ref="U9:U15" si="6">SUM(G9:S9)</f>
         <v>0</v>
       </c>
       <c r="V9" s="15">
@@ -2102,27 +2105,27 @@
       </c>
     </row>
     <row r="10" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A10" s="14" t="s">
-        <v>10</v>
-      </c>
-      <c r="B10" s="6" t="s">
-        <v>18</v>
-      </c>
-      <c r="C10" s="6" t="s">
-        <v>21</v>
-      </c>
-      <c r="D10" s="6">
+      <c r="A10" s="13" t="s">
+        <v>9</v>
+      </c>
+      <c r="B10" s="8" t="s">
+        <v>16</v>
+      </c>
+      <c r="C10" s="8" t="s">
+        <v>19</v>
+      </c>
+      <c r="D10" s="8">
         <v>8.3320000000000007</v>
       </c>
-      <c r="E10" s="31">
+      <c r="E10" s="30">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="F10" s="7">
+      <c r="F10" s="9">
         <f>'Initial Buys'!T40</f>
         <v>0</v>
       </c>
-      <c r="G10" s="24">
+      <c r="G10" s="29">
         <v>0</v>
       </c>
       <c r="H10" s="22">
@@ -2161,25 +2164,25 @@
       <c r="S10" s="20">
         <v>0</v>
       </c>
-      <c r="T10" s="18">
+      <c r="T10" s="17">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="U10" s="18">
+      <c r="U10" s="17">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
-      <c r="V10" s="16">
+      <c r="V10" s="15">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
     </row>
     <row r="11" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A11" s="13" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B11" s="8" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="C11" s="8" t="s">
         <v>6</v>
@@ -2249,10 +2252,10 @@
     </row>
     <row r="12" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A12" s="13" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="B12" s="8" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="C12" s="8" t="s">
         <v>7</v>
@@ -2322,10 +2325,10 @@
     </row>
     <row r="13" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A13" s="13" t="s">
+        <v>44</v>
+      </c>
+      <c r="B13" s="8" t="s">
         <v>46</v>
-      </c>
-      <c r="B13" s="8" t="s">
-        <v>48</v>
       </c>
       <c r="C13" s="8" t="s">
         <v>6</v>
@@ -2395,10 +2398,10 @@
     </row>
     <row r="14" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A14" s="13" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B14" s="8" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="C14" s="8" t="s">
         <v>6</v>
@@ -2468,13 +2471,13 @@
     </row>
     <row r="15" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A15" s="13" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="B15" s="8" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="C15" s="33" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="D15" s="8">
         <v>20.471</v>
@@ -2541,13 +2544,13 @@
     </row>
     <row r="16" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A16" s="13" t="s">
+        <v>21</v>
+      </c>
+      <c r="B16" s="8" t="s">
         <v>23</v>
       </c>
-      <c r="B16" s="8" t="s">
-        <v>25</v>
-      </c>
       <c r="C16" s="8" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="D16" s="8">
         <v>35.188000000000002</v>
@@ -2614,10 +2617,10 @@
     </row>
     <row r="17" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A17" s="13" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B17" s="8" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="C17" s="8" t="s">
         <v>6</v>
@@ -2687,13 +2690,13 @@
     </row>
     <row r="18" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A18" s="13" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="B18" s="8" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="C18" s="8" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="D18" s="8">
         <v>12.458</v>
@@ -2765,7 +2768,7 @@
       <c r="D19" s="25"/>
       <c r="E19" s="25"/>
       <c r="F19" s="26">
-        <f t="shared" ref="F19:V19" si="11">SUM(F7:F18)</f>
+        <f t="shared" ref="F19:U19" si="11">SUM(F8:F18)</f>
         <v>1998.5</v>
       </c>
       <c r="G19" s="27">
@@ -2830,7 +2833,7 @@
       </c>
       <c r="V19" s="21">
         <f>SUM(V2:V18)</f>
-        <v>12334.89</v>
+        <v>14512.81</v>
       </c>
     </row>
   </sheetData>

--- a/DividendLiberty/Traditional IRA.xlsx
+++ b/DividendLiberty/Traditional IRA.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="25200" windowHeight="11985"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="25200" windowHeight="11985" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Initial Buys" sheetId="3" r:id="rId1"/>
@@ -51,9 +51,6 @@
     <t>Industrials</t>
   </si>
   <si>
-    <t>KHC</t>
-  </si>
-  <si>
     <t>MCD</t>
   </si>
   <si>
@@ -72,9 +69,6 @@
     <t>Date</t>
   </si>
   <si>
-    <t>Kraft Heinz</t>
-  </si>
-  <si>
     <t>McDonald's</t>
   </si>
   <si>
@@ -198,12 +192,6 @@
     <t>KMI</t>
   </si>
   <si>
-    <t>GE</t>
-  </si>
-  <si>
-    <t>General Electric Co</t>
-  </si>
-  <si>
     <t>Kinder Morgan Inc</t>
   </si>
   <si>
@@ -220,6 +208,18 @@
   </si>
   <si>
     <t>Financial</t>
+  </si>
+  <si>
+    <t>DUK</t>
+  </si>
+  <si>
+    <t>Duke Energy Corp</t>
+  </si>
+  <si>
+    <t>PG</t>
+  </si>
+  <si>
+    <t>Procter &amp; Gamble</t>
   </si>
 </sst>
 </file>
@@ -665,8 +665,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AF83"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="M3" sqref="M3"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="Q10" sqref="Q10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -703,78 +703,78 @@
   <sheetData>
     <row r="1" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A1" s="3" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B1" s="23" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="C1" s="2"/>
       <c r="D1" s="3" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="E1" s="23" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="F1" s="2"/>
       <c r="G1" s="3" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="H1" s="23" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="I1" s="2"/>
       <c r="J1" s="3" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="K1" s="23" t="s">
-        <v>57</v>
+        <v>61</v>
       </c>
       <c r="L1" s="2"/>
       <c r="M1" s="3" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="N1" s="23" t="s">
-        <v>62</v>
+        <v>58</v>
       </c>
       <c r="O1" s="2"/>
       <c r="P1" s="3" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="Q1" s="23" t="s">
-        <v>8</v>
+        <v>63</v>
       </c>
       <c r="R1" s="2"/>
       <c r="S1" s="3" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="T1" s="23" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="U1" s="2"/>
       <c r="V1" s="3" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="W1" s="23" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="X1" s="2"/>
       <c r="Y1" s="3" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="Z1" s="23" t="s">
+        <v>10</v>
+      </c>
+      <c r="AB1" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="AC1" s="23" t="s">
         <v>11</v>
       </c>
-      <c r="AB1" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="AC1" s="23" t="s">
-        <v>12</v>
-      </c>
       <c r="AE1" s="3" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="AF1" s="23" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
     </row>
     <row r="2" spans="1:32" x14ac:dyDescent="0.25">
@@ -797,10 +797,10 @@
         <v>2011.35</v>
       </c>
       <c r="J2" s="4">
-        <v>43104</v>
+        <v>43123</v>
       </c>
       <c r="K2" s="19">
-        <v>2005.45</v>
+        <v>2337</v>
       </c>
       <c r="M2" s="4">
         <v>43110</v>
@@ -809,10 +809,10 @@
         <v>2177.92</v>
       </c>
       <c r="P2" s="4">
-        <v>42625</v>
+        <v>43123</v>
       </c>
       <c r="Q2" s="19">
-        <v>0</v>
+        <v>2218.75</v>
       </c>
       <c r="S2" s="4">
         <v>42580</v>
@@ -1275,7 +1275,7 @@
       </c>
       <c r="K40" s="19">
         <f>SUM(K2:K39)</f>
-        <v>2005.45</v>
+        <v>2337</v>
       </c>
       <c r="N40" s="19">
         <f>SUM(N2:N39)</f>
@@ -1283,7 +1283,7 @@
       </c>
       <c r="Q40" s="19">
         <f>SUM(Q2:Q39)</f>
-        <v>0</v>
+        <v>2218.75</v>
       </c>
       <c r="T40" s="19">
         <f>SUM(T2:T39)</f>
@@ -1308,40 +1308,40 @@
     </row>
     <row r="42" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A42" s="3" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B42" s="23" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="E42" s="3" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="F42" s="23" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="H42" s="3" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="I42" s="23" t="s">
+        <v>40</v>
+      </c>
+      <c r="K42" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="L42" s="23" t="s">
+        <v>41</v>
+      </c>
+      <c r="N42" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="O42" s="23" t="s">
         <v>42</v>
       </c>
-      <c r="K42" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="L42" s="23" t="s">
-        <v>43</v>
-      </c>
-      <c r="N42" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="O42" s="23" t="s">
-        <v>44</v>
-      </c>
       <c r="Q42" s="3" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="R42" s="23" t="s">
-        <v>60</v>
+        <v>56</v>
       </c>
     </row>
     <row r="43" spans="1:32" x14ac:dyDescent="0.25">
@@ -1422,8 +1422,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:V19"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="T18" sqref="T18"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="L27" sqref="L27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1469,52 +1469,52 @@
         <v>4</v>
       </c>
       <c r="F1" s="11" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="G1" s="12" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="H1" s="12" t="s">
+        <v>24</v>
+      </c>
+      <c r="I1" s="12" t="s">
+        <v>25</v>
+      </c>
+      <c r="J1" s="12" t="s">
         <v>26</v>
       </c>
-      <c r="I1" s="12" t="s">
+      <c r="K1" s="12" t="s">
         <v>27</v>
       </c>
-      <c r="J1" s="12" t="s">
+      <c r="L1" s="12" t="s">
         <v>28</v>
       </c>
-      <c r="K1" s="12" t="s">
+      <c r="M1" s="12" t="s">
         <v>29</v>
       </c>
-      <c r="L1" s="12" t="s">
+      <c r="N1" s="12" t="s">
         <v>30</v>
       </c>
-      <c r="M1" s="12" t="s">
+      <c r="O1" s="12" t="s">
         <v>31</v>
       </c>
-      <c r="N1" s="12" t="s">
+      <c r="P1" s="12" t="s">
         <v>32</v>
       </c>
-      <c r="O1" s="12" t="s">
+      <c r="Q1" s="12" t="s">
         <v>33</v>
       </c>
-      <c r="P1" s="12" t="s">
+      <c r="R1" s="12" t="s">
         <v>34</v>
       </c>
-      <c r="Q1" s="12" t="s">
+      <c r="S1" s="12" t="s">
         <v>35</v>
       </c>
-      <c r="R1" s="12" t="s">
+      <c r="T1" s="11" t="s">
         <v>36</v>
       </c>
-      <c r="S1" s="12" t="s">
+      <c r="U1" s="11" t="s">
         <v>37</v>
-      </c>
-      <c r="T1" s="11" t="s">
-        <v>38</v>
-      </c>
-      <c r="U1" s="11" t="s">
-        <v>39</v>
       </c>
       <c r="V1" s="10" t="s">
         <v>5</v>
@@ -1522,19 +1522,19 @@
     </row>
     <row r="2" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A2" s="14" t="s">
-        <v>60</v>
+        <v>56</v>
       </c>
       <c r="B2" s="6" t="s">
-        <v>61</v>
+        <v>57</v>
       </c>
       <c r="C2" s="6" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="D2" s="6">
         <v>13</v>
       </c>
       <c r="E2" s="31">
-        <f>V2/D2</f>
+        <f t="shared" ref="E2:E7" si="0">V2/D2</f>
         <v>174.45</v>
       </c>
       <c r="F2" s="7">
@@ -1581,24 +1581,24 @@
         <v>0</v>
       </c>
       <c r="T2" s="18">
-        <f t="shared" ref="T2" si="0">SUM(H2:S2)</f>
+        <f t="shared" ref="T2" si="1">SUM(H2:S2)</f>
         <v>0</v>
       </c>
       <c r="U2" s="18">
-        <f t="shared" ref="U2" si="1">SUM(G2:S2)</f>
+        <f t="shared" ref="U2" si="2">SUM(G2:S2)</f>
         <v>0</v>
       </c>
       <c r="V2" s="16">
-        <f t="shared" ref="V2" si="2">SUM(F2, U2)</f>
+        <f t="shared" ref="V2" si="3">SUM(F2, U2)</f>
         <v>2267.85</v>
       </c>
     </row>
     <row r="3" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A3" s="13" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="B3" s="8" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="C3" s="8" t="s">
         <v>6</v>
@@ -1607,7 +1607,7 @@
         <v>28</v>
       </c>
       <c r="E3" s="30">
-        <f>V3/D3</f>
+        <f t="shared" si="0"/>
         <v>72.900000000000006</v>
       </c>
       <c r="F3" s="9">
@@ -1654,11 +1654,11 @@
         <v>0</v>
       </c>
       <c r="T3" s="17">
-        <f>SUM(H3:S3)</f>
+        <f t="shared" ref="T3:T9" si="4">SUM(H3:S3)</f>
         <v>0</v>
       </c>
       <c r="U3" s="17">
-        <f>SUM(G3:S3)</f>
+        <f t="shared" ref="U3:U9" si="5">SUM(G3:S3)</f>
         <v>0</v>
       </c>
       <c r="V3" s="15">
@@ -1668,24 +1668,24 @@
     </row>
     <row r="4" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A4" s="14" t="s">
-        <v>57</v>
+        <v>61</v>
       </c>
       <c r="B4" s="6" t="s">
-        <v>58</v>
+        <v>62</v>
       </c>
       <c r="C4" s="6" t="s">
         <v>7</v>
       </c>
       <c r="D4" s="6">
-        <v>108</v>
+        <v>30</v>
       </c>
       <c r="E4" s="31">
-        <f>V4/D4</f>
-        <v>18.568981481481483</v>
+        <f t="shared" si="0"/>
+        <v>77.900000000000006</v>
       </c>
       <c r="F4" s="7">
         <f>'Initial Buys'!K40</f>
-        <v>2005.45</v>
+        <v>2337</v>
       </c>
       <c r="G4" s="24">
         <v>0</v>
@@ -1727,33 +1727,33 @@
         <v>0</v>
       </c>
       <c r="T4" s="18">
-        <f>SUM(H4:S4)</f>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="U4" s="18">
-        <f>SUM(G4:S4)</f>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="V4" s="16">
         <f>SUM(F4, U4)</f>
-        <v>2005.45</v>
+        <v>2337</v>
       </c>
     </row>
     <row r="5" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A5" s="13" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="B5" s="8" t="s">
-        <v>59</v>
+        <v>55</v>
       </c>
       <c r="C5" s="8" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="D5" s="8">
         <v>106</v>
       </c>
       <c r="E5" s="30">
-        <f>V5/D5</f>
+        <f t="shared" si="0"/>
         <v>18.974999999999998</v>
       </c>
       <c r="F5" s="9">
@@ -1800,11 +1800,11 @@
         <v>0</v>
       </c>
       <c r="T5" s="17">
-        <f>SUM(H5:S5)</f>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="U5" s="17">
-        <f>SUM(G5:S5)</f>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="V5" s="15">
@@ -1814,10 +1814,10 @@
     </row>
     <row r="6" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A6" s="14" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="B6" s="6" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="C6" s="6" t="s">
         <v>6</v>
@@ -1826,7 +1826,7 @@
         <v>28</v>
       </c>
       <c r="E6" s="31">
-        <f>V6/D6</f>
+        <f t="shared" si="0"/>
         <v>71.804999999999993</v>
       </c>
       <c r="F6" s="7">
@@ -1873,11 +1873,11 @@
         <v>0</v>
       </c>
       <c r="T6" s="18">
-        <f>SUM(H6:S6)</f>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="U6" s="18">
-        <f>SUM(G6:S6)</f>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="V6" s="16">
@@ -1887,19 +1887,19 @@
     </row>
     <row r="7" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A7" s="13" t="s">
-        <v>62</v>
+        <v>58</v>
       </c>
       <c r="B7" s="8" t="s">
-        <v>63</v>
+        <v>59</v>
       </c>
       <c r="C7" s="8" t="s">
-        <v>64</v>
+        <v>60</v>
       </c>
       <c r="D7" s="8">
         <v>41</v>
       </c>
       <c r="E7" s="30">
-        <f>V7/D7</f>
+        <f t="shared" si="0"/>
         <v>53.120000000000005</v>
       </c>
       <c r="F7" s="9">
@@ -1946,11 +1946,11 @@
         <v>0</v>
       </c>
       <c r="T7" s="17">
-        <f>SUM(H7:S7)</f>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="U7" s="17">
-        <f>SUM(G7:S7)</f>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="V7" s="15">
@@ -1960,165 +1960,165 @@
     </row>
     <row r="8" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A8" s="14" t="s">
-        <v>50</v>
+        <v>63</v>
       </c>
       <c r="B8" s="6" t="s">
-        <v>51</v>
+        <v>64</v>
       </c>
       <c r="C8" s="6" t="s">
-        <v>41</v>
+        <v>6</v>
       </c>
       <c r="D8" s="6">
+        <v>25</v>
+      </c>
+      <c r="E8" s="31">
+        <f>V8/D8</f>
+        <v>88.75</v>
+      </c>
+      <c r="F8" s="7">
+        <f>'Initial Buys'!Q40</f>
+        <v>2218.75</v>
+      </c>
+      <c r="G8" s="24">
+        <v>0</v>
+      </c>
+      <c r="H8" s="22">
+        <v>0</v>
+      </c>
+      <c r="I8" s="20">
+        <v>0</v>
+      </c>
+      <c r="J8" s="22">
+        <v>0</v>
+      </c>
+      <c r="K8" s="20">
+        <v>0</v>
+      </c>
+      <c r="L8" s="22">
+        <v>0</v>
+      </c>
+      <c r="M8" s="20">
+        <v>0</v>
+      </c>
+      <c r="N8" s="22">
+        <v>0</v>
+      </c>
+      <c r="O8" s="20">
+        <v>0</v>
+      </c>
+      <c r="P8" s="22">
+        <v>0</v>
+      </c>
+      <c r="Q8" s="20">
+        <v>0</v>
+      </c>
+      <c r="R8" s="22">
+        <v>0</v>
+      </c>
+      <c r="S8" s="20">
+        <v>0</v>
+      </c>
+      <c r="T8" s="18">
+        <f>SUM(H8:S8)</f>
+        <v>0</v>
+      </c>
+      <c r="U8" s="18">
+        <f>SUM(G8:S8)</f>
+        <v>0</v>
+      </c>
+      <c r="V8" s="16">
+        <f>SUM(F8, U8)</f>
+        <v>2218.75</v>
+      </c>
+    </row>
+    <row r="9" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A9" s="13" t="s">
+        <v>48</v>
+      </c>
+      <c r="B9" s="8" t="s">
+        <v>49</v>
+      </c>
+      <c r="C9" s="8" t="s">
+        <v>39</v>
+      </c>
+      <c r="D9" s="8">
         <v>35</v>
       </c>
-      <c r="E8" s="31">
-        <f t="shared" ref="E8:E15" si="3">V8/D8</f>
+      <c r="E9" s="30">
+        <f t="shared" ref="E9:E15" si="6">V9/D9</f>
         <v>57.1</v>
       </c>
-      <c r="F8" s="7">
+      <c r="F9" s="9">
         <f>'Initial Buys'!B40</f>
         <v>1998.5</v>
       </c>
-      <c r="G8" s="24">
-        <v>0</v>
-      </c>
-      <c r="H8" s="22">
-        <v>0</v>
-      </c>
-      <c r="I8" s="20">
-        <v>0</v>
-      </c>
-      <c r="J8" s="22">
-        <v>0</v>
-      </c>
-      <c r="K8" s="20">
-        <v>0</v>
-      </c>
-      <c r="L8" s="22">
-        <v>0</v>
-      </c>
-      <c r="M8" s="20">
-        <v>0</v>
-      </c>
-      <c r="N8" s="22">
-        <v>0</v>
-      </c>
-      <c r="O8" s="20">
-        <v>0</v>
-      </c>
-      <c r="P8" s="22">
-        <v>0</v>
-      </c>
-      <c r="Q8" s="20">
-        <v>0</v>
-      </c>
-      <c r="R8" s="22">
-        <v>0</v>
-      </c>
-      <c r="S8" s="20">
-        <v>0</v>
-      </c>
-      <c r="T8" s="18">
-        <f>SUM(H8:S8)</f>
-        <v>0</v>
-      </c>
-      <c r="U8" s="18">
-        <f>SUM(G8:S8)</f>
-        <v>0</v>
-      </c>
-      <c r="V8" s="16">
-        <f t="shared" ref="V8:V15" si="4">SUM(F8, U8)</f>
+      <c r="G9" s="29">
+        <v>0</v>
+      </c>
+      <c r="H9" s="22">
+        <v>0</v>
+      </c>
+      <c r="I9" s="20">
+        <v>0</v>
+      </c>
+      <c r="J9" s="22">
+        <v>0</v>
+      </c>
+      <c r="K9" s="20">
+        <v>0</v>
+      </c>
+      <c r="L9" s="22">
+        <v>0</v>
+      </c>
+      <c r="M9" s="20">
+        <v>0</v>
+      </c>
+      <c r="N9" s="22">
+        <v>0</v>
+      </c>
+      <c r="O9" s="20">
+        <v>0</v>
+      </c>
+      <c r="P9" s="22">
+        <v>0</v>
+      </c>
+      <c r="Q9" s="20">
+        <v>0</v>
+      </c>
+      <c r="R9" s="22">
+        <v>0</v>
+      </c>
+      <c r="S9" s="20">
+        <v>0</v>
+      </c>
+      <c r="T9" s="17">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="U9" s="17">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="V9" s="15">
+        <f t="shared" ref="V9:V15" si="7">SUM(F9, U9)</f>
         <v>1998.5</v>
-      </c>
-    </row>
-    <row r="9" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A9" s="13" t="s">
-        <v>8</v>
-      </c>
-      <c r="B9" s="8" t="s">
-        <v>15</v>
-      </c>
-      <c r="C9" s="8" t="s">
-        <v>6</v>
-      </c>
-      <c r="D9" s="8">
-        <v>23.465</v>
-      </c>
-      <c r="E9" s="30">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="F9" s="9">
-        <f>'Initial Buys'!Q40</f>
-        <v>0</v>
-      </c>
-      <c r="G9" s="29">
-        <v>0</v>
-      </c>
-      <c r="H9" s="22">
-        <v>0</v>
-      </c>
-      <c r="I9" s="20">
-        <v>0</v>
-      </c>
-      <c r="J9" s="22">
-        <v>0</v>
-      </c>
-      <c r="K9" s="20">
-        <v>0</v>
-      </c>
-      <c r="L9" s="22">
-        <v>0</v>
-      </c>
-      <c r="M9" s="20">
-        <v>0</v>
-      </c>
-      <c r="N9" s="22">
-        <v>0</v>
-      </c>
-      <c r="O9" s="20">
-        <v>0</v>
-      </c>
-      <c r="P9" s="22">
-        <v>0</v>
-      </c>
-      <c r="Q9" s="20">
-        <v>0</v>
-      </c>
-      <c r="R9" s="22">
-        <v>0</v>
-      </c>
-      <c r="S9" s="20">
-        <v>0</v>
-      </c>
-      <c r="T9" s="17">
-        <f t="shared" ref="T9:T15" si="5">SUM(H9:S9)</f>
-        <v>0</v>
-      </c>
-      <c r="U9" s="17">
-        <f t="shared" ref="U9:U15" si="6">SUM(G9:S9)</f>
-        <v>0</v>
-      </c>
-      <c r="V9" s="15">
-        <f t="shared" si="4"/>
-        <v>0</v>
       </c>
     </row>
     <row r="10" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A10" s="13" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B10" s="8" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="C10" s="8" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="D10" s="8">
         <v>8.3320000000000007</v>
       </c>
       <c r="E10" s="30">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="F10" s="9">
@@ -2165,24 +2165,24 @@
         <v>0</v>
       </c>
       <c r="T10" s="17">
-        <f t="shared" si="5"/>
+        <f t="shared" ref="T10:T15" si="8">SUM(H10:S10)</f>
         <v>0</v>
       </c>
       <c r="U10" s="17">
-        <f t="shared" si="6"/>
+        <f t="shared" ref="U10:U15" si="9">SUM(G10:S10)</f>
         <v>0</v>
       </c>
       <c r="V10" s="15">
-        <f t="shared" si="4"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
     </row>
     <row r="11" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A11" s="13" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B11" s="8" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="C11" s="8" t="s">
         <v>6</v>
@@ -2191,7 +2191,7 @@
         <v>11.27</v>
       </c>
       <c r="E11" s="30">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="F11" s="9">
@@ -2238,24 +2238,24 @@
         <v>0</v>
       </c>
       <c r="T11" s="17">
-        <f t="shared" si="5"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="U11" s="17">
-        <f t="shared" si="6"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="V11" s="15">
-        <f t="shared" si="4"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
     </row>
     <row r="12" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A12" s="13" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="B12" s="8" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="C12" s="8" t="s">
         <v>7</v>
@@ -2264,7 +2264,7 @@
         <v>4.0430000000000001</v>
       </c>
       <c r="E12" s="30">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="F12" s="9">
@@ -2311,24 +2311,24 @@
         <v>0</v>
       </c>
       <c r="T12" s="17">
-        <f t="shared" si="5"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="U12" s="17">
-        <f t="shared" si="6"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="V12" s="15">
-        <f t="shared" si="4"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
     </row>
     <row r="13" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A13" s="13" t="s">
+        <v>42</v>
+      </c>
+      <c r="B13" s="8" t="s">
         <v>44</v>
-      </c>
-      <c r="B13" s="8" t="s">
-        <v>46</v>
       </c>
       <c r="C13" s="8" t="s">
         <v>6</v>
@@ -2337,7 +2337,7 @@
         <v>10.073</v>
       </c>
       <c r="E13" s="30">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="F13" s="9">
@@ -2384,24 +2384,24 @@
         <v>0</v>
       </c>
       <c r="T13" s="17">
-        <f t="shared" si="5"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="U13" s="17">
-        <f t="shared" si="6"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="V13" s="15">
-        <f t="shared" si="4"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
     </row>
     <row r="14" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A14" s="13" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B14" s="8" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="C14" s="8" t="s">
         <v>6</v>
@@ -2410,7 +2410,7 @@
         <v>17.311</v>
       </c>
       <c r="E14" s="30">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="F14" s="9">
@@ -2457,33 +2457,33 @@
         <v>0</v>
       </c>
       <c r="T14" s="17">
-        <f t="shared" si="5"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="U14" s="17">
-        <f t="shared" si="6"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="V14" s="15">
-        <f t="shared" si="4"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
     </row>
     <row r="15" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A15" s="13" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="B15" s="8" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="C15" s="33" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="D15" s="8">
         <v>20.471</v>
       </c>
       <c r="E15" s="30">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="F15" s="9">
@@ -2530,27 +2530,27 @@
         <v>0</v>
       </c>
       <c r="T15" s="17">
-        <f t="shared" si="5"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="U15" s="17">
-        <f t="shared" si="6"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="V15" s="15">
-        <f t="shared" si="4"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
     </row>
     <row r="16" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A16" s="13" t="s">
+        <v>19</v>
+      </c>
+      <c r="B16" s="8" t="s">
         <v>21</v>
       </c>
-      <c r="B16" s="8" t="s">
-        <v>23</v>
-      </c>
       <c r="C16" s="8" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="D16" s="8">
         <v>35.188000000000002</v>
@@ -2617,10 +2617,10 @@
     </row>
     <row r="17" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A17" s="13" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B17" s="8" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="C17" s="8" t="s">
         <v>6</v>
@@ -2690,19 +2690,19 @@
     </row>
     <row r="18" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A18" s="13" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="B18" s="8" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="C18" s="8" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="D18" s="8">
         <v>12.458</v>
       </c>
       <c r="E18" s="30">
-        <f t="shared" ref="E18" si="7">V18/D18</f>
+        <f t="shared" ref="E18" si="10">V18/D18</f>
         <v>0</v>
       </c>
       <c r="F18" s="9">
@@ -2749,15 +2749,15 @@
         <v>0</v>
       </c>
       <c r="T18" s="17">
-        <f t="shared" ref="T18" si="8">SUM(H18:S18)</f>
+        <f t="shared" ref="T18" si="11">SUM(H18:S18)</f>
         <v>0</v>
       </c>
       <c r="U18" s="17">
-        <f t="shared" ref="U18" si="9">SUM(G18:S18)</f>
+        <f t="shared" ref="U18" si="12">SUM(G18:S18)</f>
         <v>0</v>
       </c>
       <c r="V18" s="15">
-        <f t="shared" ref="V18" si="10">SUM(F18, U18)</f>
+        <f t="shared" ref="V18" si="13">SUM(F18, U18)</f>
         <v>0</v>
       </c>
     </row>
@@ -2768,72 +2768,72 @@
       <c r="D19" s="25"/>
       <c r="E19" s="25"/>
       <c r="F19" s="26">
-        <f t="shared" ref="F19:U19" si="11">SUM(F8:F18)</f>
-        <v>1998.5</v>
+        <f>SUM(F2:F18)</f>
+        <v>17063.11</v>
       </c>
       <c r="G19" s="27">
-        <f t="shared" si="11"/>
+        <f>SUM(G9:G18)</f>
         <v>0</v>
       </c>
       <c r="H19" s="28">
-        <f t="shared" si="11"/>
+        <f>SUM(H9:H18)</f>
         <v>0</v>
       </c>
       <c r="I19" s="27">
-        <f t="shared" si="11"/>
+        <f>SUM(I9:I18)</f>
         <v>0</v>
       </c>
       <c r="J19" s="28">
-        <f t="shared" si="11"/>
+        <f>SUM(J9:J18)</f>
         <v>0</v>
       </c>
       <c r="K19" s="27">
-        <f t="shared" si="11"/>
+        <f>SUM(K9:K18)</f>
         <v>0</v>
       </c>
       <c r="L19" s="28">
-        <f t="shared" si="11"/>
+        <f>SUM(L9:L18)</f>
         <v>0</v>
       </c>
       <c r="M19" s="27">
-        <f t="shared" si="11"/>
+        <f>SUM(M9:M18)</f>
         <v>0</v>
       </c>
       <c r="N19" s="28">
-        <f t="shared" si="11"/>
+        <f>SUM(N9:N18)</f>
         <v>0</v>
       </c>
       <c r="O19" s="27">
-        <f t="shared" si="11"/>
+        <f>SUM(O9:O18)</f>
         <v>0</v>
       </c>
       <c r="P19" s="28">
-        <f t="shared" si="11"/>
+        <f>SUM(P9:P18)</f>
         <v>0</v>
       </c>
       <c r="Q19" s="27">
-        <f t="shared" si="11"/>
+        <f>SUM(Q9:Q18)</f>
         <v>0</v>
       </c>
       <c r="R19" s="28">
-        <f t="shared" si="11"/>
+        <f>SUM(R9:R18)</f>
         <v>0</v>
       </c>
       <c r="S19" s="27">
-        <f t="shared" si="11"/>
+        <f>SUM(S9:S18)</f>
         <v>0</v>
       </c>
       <c r="T19" s="27">
-        <f t="shared" si="11"/>
+        <f>SUM(T9:T18)</f>
         <v>0</v>
       </c>
       <c r="U19" s="27">
-        <f t="shared" si="11"/>
+        <f>SUM(U9:U18)</f>
         <v>0</v>
       </c>
       <c r="V19" s="21">
         <f>SUM(V2:V18)</f>
-        <v>14512.81</v>
+        <v>17063.11</v>
       </c>
     </row>
   </sheetData>
